--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['4', '38', '50', '58', '69']</t>
   </si>
   <si>
+    <t>['39', '70']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -785,6 +788,15 @@
   </si>
   <si>
     <t>['28', '45+2']</t>
+  </si>
+  <si>
+    <t>['44', '78']</t>
+  </si>
+  <si>
+    <t>['34', '88']</t>
+  </si>
+  <si>
+    <t>['19', '40', '83']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.25</v>
@@ -1817,7 +1829,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2435,7 +2447,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2847,7 +2859,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3053,7 +3065,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3259,7 +3271,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3465,7 +3477,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3543,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ12">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3671,7 +3683,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3877,7 +3889,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4083,7 +4095,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4289,7 +4301,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4367,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4576,7 +4588,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4701,7 +4713,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5191,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5400,7 +5412,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5525,7 +5537,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5809,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.14</v>
@@ -6143,7 +6155,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6349,7 +6361,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6555,7 +6567,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6761,7 +6773,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7173,7 +7185,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7585,7 +7597,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7663,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ32">
         <v>0.63</v>
@@ -7791,7 +7803,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8078,7 +8090,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ34">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8203,7 +8215,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8696,7 +8708,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8821,7 +8833,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8899,7 +8911,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>2.57</v>
@@ -9027,7 +9039,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9105,7 +9117,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1.86</v>
@@ -9645,7 +9657,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10263,7 +10275,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10469,7 +10481,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10547,7 +10559,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ46">
         <v>2.25</v>
@@ -10881,7 +10893,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11293,7 +11305,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11580,7 +11592,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ51">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -12117,7 +12129,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12323,7 +12335,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12813,7 +12825,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
         <v>1.43</v>
@@ -12941,7 +12953,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13147,7 +13159,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13353,7 +13365,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13434,7 +13446,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13559,7 +13571,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13640,7 +13652,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ61">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -13843,7 +13855,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.13</v>
@@ -14177,7 +14189,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14461,7 +14473,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14589,7 +14601,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14670,7 +14682,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -15413,7 +15425,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16031,7 +16043,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16237,7 +16249,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16315,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16936,7 +16948,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -17061,7 +17073,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17348,7 +17360,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ79">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17473,7 +17485,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17760,7 +17772,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -17885,7 +17897,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -17963,7 +17975,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18378,7 +18390,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18503,7 +18515,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18787,7 +18799,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86">
         <v>0.86</v>
@@ -18915,7 +18927,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19121,7 +19133,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19327,7 +19339,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19533,7 +19545,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19739,7 +19751,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19945,7 +19957,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20151,7 +20163,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20357,7 +20369,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20563,7 +20575,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20644,7 +20656,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20769,7 +20781,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21259,7 +21271,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.29</v>
@@ -21387,7 +21399,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21593,7 +21605,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21671,7 +21683,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ100">
         <v>1.29</v>
@@ -21799,7 +21811,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22005,7 +22017,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22083,7 +22095,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>2.14</v>
@@ -22211,7 +22223,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22498,7 +22510,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -22623,7 +22635,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22910,7 +22922,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ106">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -23241,7 +23253,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23447,7 +23459,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23859,7 +23871,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -23940,7 +23952,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24477,7 +24489,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24761,7 +24773,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24889,7 +24901,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25095,7 +25107,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25507,7 +25519,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25588,7 +25600,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.67</v>
@@ -25919,7 +25931,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26125,7 +26137,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26331,7 +26343,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26409,7 +26421,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ123">
         <v>2.57</v>
@@ -26537,7 +26549,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26743,7 +26755,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27027,10 +27039,10 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ126">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR126">
         <v>1.67</v>
@@ -27155,7 +27167,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27236,7 +27248,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ127">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR127">
         <v>1.46</v>
@@ -27361,7 +27373,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27773,7 +27785,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28185,7 +28197,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28597,7 +28609,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28675,7 +28687,7 @@
         <v>2.43</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>2.25</v>
@@ -28803,7 +28815,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28960,6 +28972,624 @@
       </c>
       <c r="BP135">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7450785</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F136">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>109</v>
+      </c>
+      <c r="P136" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q136">
+        <v>2.75</v>
+      </c>
+      <c r="R136">
+        <v>2.25</v>
+      </c>
+      <c r="S136">
+        <v>3.75</v>
+      </c>
+      <c r="T136">
+        <v>1.35</v>
+      </c>
+      <c r="U136">
+        <v>2.95</v>
+      </c>
+      <c r="V136">
+        <v>2.55</v>
+      </c>
+      <c r="W136">
+        <v>1.46</v>
+      </c>
+      <c r="X136">
+        <v>5.95</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>2.1</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>3.4</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>9.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.22</v>
+      </c>
+      <c r="AF136">
+        <v>4</v>
+      </c>
+      <c r="AG136">
+        <v>1.8</v>
+      </c>
+      <c r="AH136">
+        <v>2</v>
+      </c>
+      <c r="AI136">
+        <v>1.67</v>
+      </c>
+      <c r="AJ136">
+        <v>2.1</v>
+      </c>
+      <c r="AK136">
+        <v>1.3</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>1.72</v>
+      </c>
+      <c r="AN136">
+        <v>1.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.43</v>
+      </c>
+      <c r="AP136">
+        <v>1.63</v>
+      </c>
+      <c r="AQ136">
+        <v>1.63</v>
+      </c>
+      <c r="AR136">
+        <v>1.72</v>
+      </c>
+      <c r="AS136">
+        <v>1.37</v>
+      </c>
+      <c r="AT136">
+        <v>3.09</v>
+      </c>
+      <c r="AU136">
+        <v>8</v>
+      </c>
+      <c r="AV136">
+        <v>7</v>
+      </c>
+      <c r="AW136">
+        <v>3</v>
+      </c>
+      <c r="AX136">
+        <v>6</v>
+      </c>
+      <c r="AY136">
+        <v>15</v>
+      </c>
+      <c r="AZ136">
+        <v>19</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>6</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>2</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7450784</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45618.6875</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>70</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>185</v>
+      </c>
+      <c r="P137" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q137">
+        <v>2.3</v>
+      </c>
+      <c r="R137">
+        <v>2.25</v>
+      </c>
+      <c r="S137">
+        <v>4.75</v>
+      </c>
+      <c r="T137">
+        <v>1.35</v>
+      </c>
+      <c r="U137">
+        <v>2.95</v>
+      </c>
+      <c r="V137">
+        <v>2.6</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>6</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>1.7</v>
+      </c>
+      <c r="AA137">
+        <v>3.8</v>
+      </c>
+      <c r="AB137">
+        <v>4.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>9.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.25</v>
+      </c>
+      <c r="AF137">
+        <v>3.75</v>
+      </c>
+      <c r="AG137">
+        <v>1.8</v>
+      </c>
+      <c r="AH137">
+        <v>2</v>
+      </c>
+      <c r="AI137">
+        <v>1.75</v>
+      </c>
+      <c r="AJ137">
+        <v>2</v>
+      </c>
+      <c r="AK137">
+        <v>1.18</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.95</v>
+      </c>
+      <c r="AN137">
+        <v>2.13</v>
+      </c>
+      <c r="AO137">
+        <v>0.29</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>0.38</v>
+      </c>
+      <c r="AR137">
+        <v>1.82</v>
+      </c>
+      <c r="AS137">
+        <v>1.18</v>
+      </c>
+      <c r="AT137">
+        <v>3</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>11</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>10</v>
+      </c>
+      <c r="AZ137">
+        <v>20</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>5</v>
+      </c>
+      <c r="BC137">
+        <v>11</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7450787</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45619.44791666666</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>95</v>
+      </c>
+      <c r="P138" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>2.4</v>
+      </c>
+      <c r="S138">
+        <v>2.4</v>
+      </c>
+      <c r="T138">
+        <v>1.29</v>
+      </c>
+      <c r="U138">
+        <v>3.3</v>
+      </c>
+      <c r="V138">
+        <v>2.36</v>
+      </c>
+      <c r="W138">
+        <v>1.54</v>
+      </c>
+      <c r="X138">
+        <v>5.45</v>
+      </c>
+      <c r="Y138">
+        <v>1.12</v>
+      </c>
+      <c r="Z138">
+        <v>3.6</v>
+      </c>
+      <c r="AA138">
+        <v>4</v>
+      </c>
+      <c r="AB138">
+        <v>1.85</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>10</v>
+      </c>
+      <c r="AE138">
+        <v>1.18</v>
+      </c>
+      <c r="AF138">
+        <v>4.5</v>
+      </c>
+      <c r="AG138">
+        <v>1.5</v>
+      </c>
+      <c r="AH138">
+        <v>2.5</v>
+      </c>
+      <c r="AI138">
+        <v>1.5</v>
+      </c>
+      <c r="AJ138">
+        <v>2.5</v>
+      </c>
+      <c r="AK138">
+        <v>1.8</v>
+      </c>
+      <c r="AL138">
+        <v>1.2</v>
+      </c>
+      <c r="AM138">
+        <v>1.3</v>
+      </c>
+      <c r="AN138">
+        <v>0.71</v>
+      </c>
+      <c r="AO138">
+        <v>0.14</v>
+      </c>
+      <c r="AP138">
+        <v>0.63</v>
+      </c>
+      <c r="AQ138">
+        <v>0.5</v>
+      </c>
+      <c r="AR138">
+        <v>1.26</v>
+      </c>
+      <c r="AS138">
+        <v>1.5</v>
+      </c>
+      <c r="AT138">
+        <v>2.76</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>5</v>
+      </c>
+      <c r="AX138">
+        <v>1</v>
+      </c>
+      <c r="AY138">
+        <v>12</v>
+      </c>
+      <c r="AZ138">
+        <v>7</v>
+      </c>
+      <c r="BA138">
+        <v>5</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>1.91</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,21 @@
     <t>['39', '70']</t>
   </si>
   <si>
+    <t>['4', '57']</t>
+  </si>
+  <si>
+    <t>['17', '26', '39']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['19', '45+3']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -602,9 +617,6 @@
   </si>
   <si>
     <t>['17', '83']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -797,6 +809,12 @@
   </si>
   <si>
     <t>['19', '40', '83']</t>
+  </si>
+  <si>
+    <t>['34', '79']</t>
+  </si>
+  <si>
+    <t>['32', '44']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1829,7 +1847,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2116,7 +2134,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2319,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2447,7 +2465,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2528,7 +2546,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2731,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2859,7 +2877,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3065,7 +3083,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3146,7 +3164,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3271,7 +3289,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3349,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.38</v>
@@ -3477,7 +3495,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3683,7 +3701,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3764,7 +3782,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3889,7 +3907,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3967,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>2.14</v>
@@ -4095,7 +4113,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4301,7 +4319,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4713,7 +4731,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4997,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5409,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5537,7 +5555,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5824,7 +5842,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6027,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6155,7 +6173,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6236,7 +6254,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6361,7 +6379,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6439,10 +6457,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6567,7 +6585,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6648,7 +6666,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.72</v>
@@ -6773,7 +6791,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6851,7 +6869,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -7057,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>1.86</v>
@@ -7185,7 +7203,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7266,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7472,7 +7490,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ31">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7597,7 +7615,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7803,7 +7821,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7881,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.29</v>
@@ -8215,7 +8233,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8296,7 +8314,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8499,7 +8517,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>0.75</v>
@@ -8833,7 +8851,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8914,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -9039,7 +9057,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9326,7 +9344,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ40">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9532,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR41">
         <v>2.02</v>
@@ -9657,7 +9675,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9735,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -9941,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43">
         <v>2.25</v>
@@ -10150,7 +10168,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10275,7 +10293,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10481,7 +10499,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10893,7 +10911,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11305,7 +11323,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11589,7 +11607,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -12004,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12129,7 +12147,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12207,10 +12225,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR54">
         <v>1.89</v>
@@ -12335,7 +12353,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12619,10 +12637,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12828,7 +12846,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -12953,7 +12971,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13031,10 +13049,10 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13159,7 +13177,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13237,7 +13255,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
         <v>0.75</v>
@@ -13365,7 +13383,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13443,7 +13461,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ60">
         <v>1.63</v>
@@ -13571,7 +13589,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13858,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.9</v>
@@ -14189,7 +14207,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14270,7 +14288,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -14601,7 +14619,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14885,7 +14903,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ67">
         <v>2.14</v>
@@ -15425,7 +15443,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15503,7 +15521,7 @@
         <v>2.5</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
         <v>2.25</v>
@@ -15709,10 +15727,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16043,7 +16061,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16121,10 +16139,10 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16249,7 +16267,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16536,7 +16554,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ75">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -16739,10 +16757,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17073,7 +17091,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17151,7 +17169,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>0.63</v>
@@ -17357,7 +17375,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79">
         <v>0.38</v>
@@ -17485,7 +17503,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17897,7 +17915,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>3.1</v>
@@ -17978,7 +17996,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18181,7 +18199,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83">
         <v>0.25</v>
@@ -18515,7 +18533,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18593,7 +18611,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
@@ -18927,7 +18945,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19133,7 +19151,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19339,7 +19357,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19420,7 +19438,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19545,7 +19563,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19623,10 +19641,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19751,7 +19769,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19832,7 +19850,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -19957,7 +19975,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20163,7 +20181,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20241,7 +20259,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
         <v>2.25</v>
@@ -20369,7 +20387,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20447,7 +20465,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>0.63</v>
@@ -20575,7 +20593,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20653,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ95">
         <v>1.63</v>
@@ -20781,7 +20799,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20862,7 +20880,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21068,7 +21086,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21399,7 +21417,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21480,7 +21498,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -21605,7 +21623,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21811,7 +21829,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21892,7 +21910,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -22017,7 +22035,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22223,7 +22241,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22635,7 +22653,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22713,10 +22731,10 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -22919,7 +22937,7 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106">
         <v>0.5</v>
@@ -23125,7 +23143,7 @@
         <v>0.4</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
         <v>0.25</v>
@@ -23253,7 +23271,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23334,7 +23352,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23459,7 +23477,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23871,7 +23889,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24361,7 +24379,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ113">
         <v>0.86</v>
@@ -24489,7 +24507,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24776,7 +24794,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR115">
         <v>1.74</v>
@@ -24901,7 +24919,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25107,7 +25125,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25185,10 +25203,10 @@
         <v>1.4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ117">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25391,10 +25409,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR118">
         <v>1.58</v>
@@ -25519,7 +25537,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25803,7 +25821,7 @@
         <v>2.17</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.86</v>
@@ -25931,7 +25949,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26009,10 +26027,10 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26137,7 +26155,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26215,7 +26233,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ122">
         <v>2.14</v>
@@ -26343,7 +26361,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26424,7 +26442,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ123">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR123">
         <v>1.23</v>
@@ -26549,7 +26567,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26627,10 +26645,10 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.68</v>
@@ -26755,7 +26773,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26836,7 +26854,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
@@ -27167,7 +27185,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27373,7 +27391,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27785,7 +27803,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27866,7 +27884,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -28197,7 +28215,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28609,7 +28627,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28815,7 +28833,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28893,7 +28911,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ135">
         <v>1.29</v>
@@ -29021,7 +29039,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29227,7 +29245,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29433,7 +29451,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29526,31 +29544,31 @@
         <v>2.76</v>
       </c>
       <c r="AU138">
+        <v>9</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>19</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
         <v>7</v>
-      </c>
-      <c r="AV138">
-        <v>5</v>
-      </c>
-      <c r="AW138">
-        <v>5</v>
-      </c>
-      <c r="AX138">
-        <v>1</v>
-      </c>
-      <c r="AY138">
-        <v>12</v>
-      </c>
-      <c r="AZ138">
-        <v>7</v>
-      </c>
-      <c r="BA138">
-        <v>5</v>
       </c>
       <c r="BB138">
         <v>4</v>
       </c>
       <c r="BC138">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD138">
         <v>0</v>
@@ -29590,6 +29608,1242 @@
       </c>
       <c r="BP138">
         <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7450786</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45619.5625</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>186</v>
+      </c>
+      <c r="P139" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q139">
+        <v>1.95</v>
+      </c>
+      <c r="R139">
+        <v>2.5</v>
+      </c>
+      <c r="S139">
+        <v>6</v>
+      </c>
+      <c r="T139">
+        <v>1.31</v>
+      </c>
+      <c r="U139">
+        <v>3.2</v>
+      </c>
+      <c r="V139">
+        <v>2.4</v>
+      </c>
+      <c r="W139">
+        <v>1.51</v>
+      </c>
+      <c r="X139">
+        <v>5.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.12</v>
+      </c>
+      <c r="Z139">
+        <v>1.45</v>
+      </c>
+      <c r="AA139">
+        <v>4.75</v>
+      </c>
+      <c r="AB139">
+        <v>6</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.2</v>
+      </c>
+      <c r="AF139">
+        <v>4.2</v>
+      </c>
+      <c r="AG139">
+        <v>1.5</v>
+      </c>
+      <c r="AH139">
+        <v>2.5</v>
+      </c>
+      <c r="AI139">
+        <v>1.7</v>
+      </c>
+      <c r="AJ139">
+        <v>2.05</v>
+      </c>
+      <c r="AK139">
+        <v>1.09</v>
+      </c>
+      <c r="AL139">
+        <v>1.16</v>
+      </c>
+      <c r="AM139">
+        <v>2.55</v>
+      </c>
+      <c r="AN139">
+        <v>2.63</v>
+      </c>
+      <c r="AO139">
+        <v>1.43</v>
+      </c>
+      <c r="AP139">
+        <v>2.67</v>
+      </c>
+      <c r="AQ139">
+        <v>1.25</v>
+      </c>
+      <c r="AR139">
+        <v>1.94</v>
+      </c>
+      <c r="AS139">
+        <v>1.53</v>
+      </c>
+      <c r="AT139">
+        <v>3.47</v>
+      </c>
+      <c r="AU139">
+        <v>14</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>8</v>
+      </c>
+      <c r="AY139">
+        <v>27</v>
+      </c>
+      <c r="AZ139">
+        <v>17</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>3</v>
+      </c>
+      <c r="BC139">
+        <v>9</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>2.38</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7450788</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45619.67708333334</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140" t="s">
+        <v>187</v>
+      </c>
+      <c r="P140" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q140">
+        <v>2.1</v>
+      </c>
+      <c r="R140">
+        <v>2.4</v>
+      </c>
+      <c r="S140">
+        <v>5.5</v>
+      </c>
+      <c r="T140">
+        <v>1.33</v>
+      </c>
+      <c r="U140">
+        <v>3.05</v>
+      </c>
+      <c r="V140">
+        <v>2.5</v>
+      </c>
+      <c r="W140">
+        <v>1.48</v>
+      </c>
+      <c r="X140">
+        <v>5.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.12</v>
+      </c>
+      <c r="Z140">
+        <v>1.79</v>
+      </c>
+      <c r="AA140">
+        <v>3.6</v>
+      </c>
+      <c r="AB140">
+        <v>3.55</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.22</v>
+      </c>
+      <c r="AF140">
+        <v>4</v>
+      </c>
+      <c r="AG140">
+        <v>1.79</v>
+      </c>
+      <c r="AH140">
+        <v>1.98</v>
+      </c>
+      <c r="AI140">
+        <v>1.75</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.16</v>
+      </c>
+      <c r="AL140">
+        <v>1.2</v>
+      </c>
+      <c r="AM140">
+        <v>2.05</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>2.57</v>
+      </c>
+      <c r="AP140">
+        <v>2.11</v>
+      </c>
+      <c r="AQ140">
+        <v>2.25</v>
+      </c>
+      <c r="AR140">
+        <v>1.69</v>
+      </c>
+      <c r="AS140">
+        <v>1.61</v>
+      </c>
+      <c r="AT140">
+        <v>3.3</v>
+      </c>
+      <c r="AU140">
+        <v>9</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>17</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>7</v>
+      </c>
+      <c r="BB140">
+        <v>7</v>
+      </c>
+      <c r="BC140">
+        <v>14</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7450790</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45620.34375</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" t="s">
+        <v>78</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>188</v>
+      </c>
+      <c r="P141" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q141">
+        <v>2.88</v>
+      </c>
+      <c r="R141">
+        <v>2.2</v>
+      </c>
+      <c r="S141">
+        <v>3.75</v>
+      </c>
+      <c r="T141">
+        <v>1.4</v>
+      </c>
+      <c r="U141">
+        <v>2.75</v>
+      </c>
+      <c r="V141">
+        <v>2.75</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>8</v>
+      </c>
+      <c r="Y141">
+        <v>1.08</v>
+      </c>
+      <c r="Z141">
+        <v>2.15</v>
+      </c>
+      <c r="AA141">
+        <v>3.4</v>
+      </c>
+      <c r="AB141">
+        <v>3.25</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>1.85</v>
+      </c>
+      <c r="AH141">
+        <v>1.95</v>
+      </c>
+      <c r="AI141">
+        <v>1.7</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1.43</v>
+      </c>
+      <c r="AO141">
+        <v>0.14</v>
+      </c>
+      <c r="AP141">
+        <v>1.25</v>
+      </c>
+      <c r="AQ141">
+        <v>0.5</v>
+      </c>
+      <c r="AR141">
+        <v>1.53</v>
+      </c>
+      <c r="AS141">
+        <v>1.27</v>
+      </c>
+      <c r="AT141">
+        <v>2.8</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>10</v>
+      </c>
+      <c r="AX141">
+        <v>1</v>
+      </c>
+      <c r="AY141">
+        <v>18</v>
+      </c>
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>2.25</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7450791</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45620.44791666666</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>86</v>
+      </c>
+      <c r="H142" t="s">
+        <v>85</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>189</v>
+      </c>
+      <c r="P142" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q142">
+        <v>2.2</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>9</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>1.53</v>
+      </c>
+      <c r="AA142">
+        <v>3.9</v>
+      </c>
+      <c r="AB142">
+        <v>6.5</v>
+      </c>
+      <c r="AC142">
+        <v>0</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>5.12</v>
+      </c>
+      <c r="AF142">
+        <v>1.16</v>
+      </c>
+      <c r="AG142">
+        <v>2.15</v>
+      </c>
+      <c r="AH142">
+        <v>1.67</v>
+      </c>
+      <c r="AI142">
+        <v>2.2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.62</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1.86</v>
+      </c>
+      <c r="AO142">
+        <v>1.13</v>
+      </c>
+      <c r="AP142">
+        <v>1.75</v>
+      </c>
+      <c r="AQ142">
+        <v>1.11</v>
+      </c>
+      <c r="AR142">
+        <v>1.61</v>
+      </c>
+      <c r="AS142">
+        <v>1.56</v>
+      </c>
+      <c r="AT142">
+        <v>3.17</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
+        <v>9</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>7</v>
+      </c>
+      <c r="BC142">
+        <v>10</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7450783</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45620.5625</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>87</v>
+      </c>
+      <c r="H143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>93</v>
+      </c>
+      <c r="P143" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q143">
+        <v>3.25</v>
+      </c>
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>3.75</v>
+      </c>
+      <c r="T143">
+        <v>1.44</v>
+      </c>
+      <c r="U143">
+        <v>2.63</v>
+      </c>
+      <c r="V143">
+        <v>3.25</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>9</v>
+      </c>
+      <c r="Y143">
+        <v>1.07</v>
+      </c>
+      <c r="Z143">
+        <v>2.47</v>
+      </c>
+      <c r="AA143">
+        <v>3.09</v>
+      </c>
+      <c r="AB143">
+        <v>2.68</v>
+      </c>
+      <c r="AC143">
+        <v>4.96</v>
+      </c>
+      <c r="AD143">
+        <v>1.17</v>
+      </c>
+      <c r="AE143">
+        <v>1.48</v>
+      </c>
+      <c r="AF143">
+        <v>2.62</v>
+      </c>
+      <c r="AG143">
+        <v>2.12</v>
+      </c>
+      <c r="AH143">
+        <v>1.73</v>
+      </c>
+      <c r="AI143">
+        <v>2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.75</v>
+      </c>
+      <c r="AK143">
+        <v>1.36</v>
+      </c>
+      <c r="AL143">
+        <v>1.33</v>
+      </c>
+      <c r="AM143">
+        <v>1.5</v>
+      </c>
+      <c r="AN143">
+        <v>1.43</v>
+      </c>
+      <c r="AO143">
+        <v>1.38</v>
+      </c>
+      <c r="AP143">
+        <v>1.63</v>
+      </c>
+      <c r="AQ143">
+        <v>1.22</v>
+      </c>
+      <c r="AR143">
+        <v>1.98</v>
+      </c>
+      <c r="AS143">
+        <v>1.37</v>
+      </c>
+      <c r="AT143">
+        <v>3.35</v>
+      </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>20</v>
+      </c>
+      <c r="AZ143">
+        <v>5</v>
+      </c>
+      <c r="BA143">
+        <v>8</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>9</v>
+      </c>
+      <c r="BD143">
+        <v>1.78</v>
+      </c>
+      <c r="BE143">
+        <v>6.9</v>
+      </c>
+      <c r="BF143">
+        <v>2.35</v>
+      </c>
+      <c r="BG143">
+        <v>1.21</v>
+      </c>
+      <c r="BH143">
+        <v>3.9</v>
+      </c>
+      <c r="BI143">
+        <v>1.43</v>
+      </c>
+      <c r="BJ143">
+        <v>2.58</v>
+      </c>
+      <c r="BK143">
+        <v>2.25</v>
+      </c>
+      <c r="BL143">
+        <v>1.92</v>
+      </c>
+      <c r="BM143">
+        <v>2.32</v>
+      </c>
+      <c r="BN143">
+        <v>1.52</v>
+      </c>
+      <c r="BO143">
+        <v>3.2</v>
+      </c>
+      <c r="BP143">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7450789</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45621.625</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>79</v>
+      </c>
+      <c r="H144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>190</v>
+      </c>
+      <c r="P144" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>2.88</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>3.1</v>
+      </c>
+      <c r="AA144">
+        <v>3.5</v>
+      </c>
+      <c r="AB144">
+        <v>2.2</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>9</v>
+      </c>
+      <c r="AE144">
+        <v>1.28</v>
+      </c>
+      <c r="AF144">
+        <v>3.5</v>
+      </c>
+      <c r="AG144">
+        <v>1.95</v>
+      </c>
+      <c r="AH144">
+        <v>1.85</v>
+      </c>
+      <c r="AI144">
+        <v>1.75</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.62</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.36</v>
+      </c>
+      <c r="AN144">
+        <v>1.29</v>
+      </c>
+      <c r="AO144">
+        <v>1.13</v>
+      </c>
+      <c r="AP144">
+        <v>1.5</v>
+      </c>
+      <c r="AQ144">
+        <v>1</v>
+      </c>
+      <c r="AR144">
+        <v>1.48</v>
+      </c>
+      <c r="AS144">
+        <v>1.39</v>
+      </c>
+      <c r="AT144">
+        <v>2.87</v>
+      </c>
+      <c r="AU144">
+        <v>7</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>8</v>
+      </c>
+      <c r="AY144">
+        <v>15</v>
+      </c>
+      <c r="AZ144">
+        <v>13</v>
+      </c>
+      <c r="BA144">
+        <v>7</v>
+      </c>
+      <c r="BB144">
+        <v>6</v>
+      </c>
+      <c r="BC144">
+        <v>13</v>
+      </c>
+      <c r="BD144">
+        <v>2.4</v>
+      </c>
+      <c r="BE144">
+        <v>7</v>
+      </c>
+      <c r="BF144">
+        <v>1.75</v>
+      </c>
+      <c r="BG144">
+        <v>1.18</v>
+      </c>
+      <c r="BH144">
+        <v>4.15</v>
+      </c>
+      <c r="BI144">
+        <v>1.4</v>
+      </c>
+      <c r="BJ144">
+        <v>2.7</v>
+      </c>
+      <c r="BK144">
+        <v>2.38</v>
+      </c>
+      <c r="BL144">
+        <v>2</v>
+      </c>
+      <c r="BM144">
+        <v>2.22</v>
+      </c>
+      <c r="BN144">
+        <v>1.58</v>
+      </c>
+      <c r="BO144">
+        <v>2.98</v>
+      </c>
+      <c r="BP144">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -30786,16 +30786,16 @@
         <v>4</v>
       </c>
       <c r="AW144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY144">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ144">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA144">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -30168,13 +30168,13 @@
         <v>6</v>
       </c>
       <c r="AW141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX141">
         <v>1</v>
       </c>
       <c r="AY141">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ141">
         <v>11</v>
@@ -30380,7 +30380,7 @@
         <v>4</v>
       </c>
       <c r="AY142">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ142">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,15 @@
     <t>['19', '45+3']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['15', '43']</t>
+  </si>
+  <si>
+    <t>['3', '56']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -703,9 +712,6 @@
     <t>['4', '50']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['14', '61', '64']</t>
   </si>
   <si>
@@ -815,6 +821,9 @@
   </si>
   <si>
     <t>['32', '44']</t>
+  </si>
+  <si>
+    <t>['6', '39', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1719,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1847,7 +1856,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1925,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0.86</v>
@@ -2340,7 +2349,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2465,7 +2474,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2543,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.22</v>
@@ -2877,7 +2886,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2958,7 +2967,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3083,7 +3092,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3289,7 +3298,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3495,7 +3504,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3701,7 +3710,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3907,7 +3916,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4113,7 +4122,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4191,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4319,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4603,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>0.38</v>
@@ -5224,7 +5233,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>0.84</v>
@@ -5555,7 +5564,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5633,10 +5642,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -6048,7 +6057,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.69</v>
@@ -6173,7 +6182,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6379,7 +6388,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6585,7 +6594,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6663,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6791,7 +6800,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7078,7 +7087,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7203,7 +7212,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7615,7 +7624,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7696,7 +7705,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7821,7 +7830,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8105,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
         <v>0.38</v>
@@ -8233,7 +8242,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8311,7 +8320,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8520,7 +8529,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.51</v>
@@ -8723,7 +8732,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.63</v>
@@ -8851,7 +8860,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9057,7 +9066,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9138,7 +9147,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9547,7 +9556,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41">
         <v>1.11</v>
@@ -9675,7 +9684,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9962,7 +9971,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ43">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10293,7 +10302,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10371,7 +10380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ45">
         <v>0.86</v>
@@ -10499,7 +10508,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10580,7 +10589,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ46">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR46">
         <v>1.21</v>
@@ -10786,7 +10795,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10911,7 +10920,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10989,7 +10998,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11195,10 +11204,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11323,7 +11332,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11401,7 +11410,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>2.14</v>
@@ -11813,7 +11822,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -12147,7 +12156,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12353,7 +12362,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12434,7 +12443,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12971,7 +12980,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13177,7 +13186,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13258,7 +13267,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.38</v>
@@ -13383,7 +13392,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13589,7 +13598,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14207,7 +14216,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14285,7 +14294,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14619,7 +14628,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14697,7 +14706,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15109,10 +15118,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15318,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15443,7 +15452,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15524,7 +15533,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -16061,7 +16070,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16267,7 +16276,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16348,7 +16357,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16551,7 +16560,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>1.22</v>
@@ -17091,7 +17100,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17172,7 +17181,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17503,7 +17512,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17787,7 +17796,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -18202,7 +18211,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83">
         <v>1.5</v>
@@ -18533,7 +18542,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="Q85">
         <v>2.25</v>
@@ -18945,7 +18954,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19026,7 +19035,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19151,7 +19160,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19229,7 +19238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>2.14</v>
@@ -19357,7 +19366,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19435,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19563,7 +19572,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19769,7 +19778,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19847,7 +19856,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
         <v>1.11</v>
@@ -19975,7 +19984,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20056,7 +20065,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20181,7 +20190,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20262,7 +20271,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR93">
         <v>1.66</v>
@@ -20387,7 +20396,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20468,7 +20477,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.85</v>
@@ -20593,7 +20602,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20799,7 +20808,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20877,7 +20886,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ96">
         <v>2.25</v>
@@ -21417,7 +21426,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21623,7 +21632,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21829,7 +21838,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22035,7 +22044,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22241,7 +22250,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22319,10 +22328,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR103">
         <v>1.6</v>
@@ -22525,7 +22534,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>0.38</v>
@@ -22653,7 +22662,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23146,7 +23155,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23271,7 +23280,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23349,7 +23358,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -23477,7 +23486,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23555,10 +23564,10 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -23764,7 +23773,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ110">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR110">
         <v>1.69</v>
@@ -23889,7 +23898,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -23967,7 +23976,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
         <v>1.63</v>
@@ -24173,10 +24182,10 @@
         <v>2.67</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ112">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR112">
         <v>1.59</v>
@@ -24507,7 +24516,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24588,7 +24597,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24919,7 +24928,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24997,7 +25006,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116">
         <v>1.38</v>
@@ -25125,7 +25134,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25537,7 +25546,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25824,7 +25833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25949,7 +25958,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26155,7 +26164,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26361,7 +26370,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26567,7 +26576,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26773,7 +26782,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -26851,7 +26860,7 @@
         <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -27185,7 +27194,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27263,7 +27272,7 @@
         <v>1.17</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ127">
         <v>1.63</v>
@@ -27391,7 +27400,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27678,7 +27687,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR129">
         <v>1.39</v>
@@ -27803,7 +27812,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27881,7 +27890,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130">
         <v>1.25</v>
@@ -28087,10 +28096,10 @@
         <v>0.71</v>
       </c>
       <c r="AP131">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ131">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28215,7 +28224,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28293,7 +28302,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ132">
         <v>1.38</v>
@@ -28502,7 +28511,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ133">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR133">
         <v>1.65</v>
@@ -28627,7 +28636,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28708,7 +28717,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR134">
         <v>1.7</v>
@@ -28833,7 +28842,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29039,7 +29048,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29245,7 +29254,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29451,7 +29460,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29863,7 +29872,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30069,7 +30078,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30844,6 +30853,1036 @@
       </c>
       <c r="BP144">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7450792</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F145">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>191</v>
+      </c>
+      <c r="P145" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q145">
+        <v>2.6</v>
+      </c>
+      <c r="R145">
+        <v>2.25</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.05</v>
+      </c>
+      <c r="V145">
+        <v>2.5</v>
+      </c>
+      <c r="W145">
+        <v>1.47</v>
+      </c>
+      <c r="X145">
+        <v>5.95</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>1.91</v>
+      </c>
+      <c r="AA145">
+        <v>3.4</v>
+      </c>
+      <c r="AB145">
+        <v>3.9</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>10</v>
+      </c>
+      <c r="AE145">
+        <v>1.22</v>
+      </c>
+      <c r="AF145">
+        <v>4</v>
+      </c>
+      <c r="AG145">
+        <v>1.8</v>
+      </c>
+      <c r="AH145">
+        <v>2</v>
+      </c>
+      <c r="AI145">
+        <v>1.67</v>
+      </c>
+      <c r="AJ145">
+        <v>2.1</v>
+      </c>
+      <c r="AK145">
+        <v>1.2</v>
+      </c>
+      <c r="AL145">
+        <v>1.2</v>
+      </c>
+      <c r="AM145">
+        <v>1.95</v>
+      </c>
+      <c r="AN145">
+        <v>1.38</v>
+      </c>
+      <c r="AO145">
+        <v>0.63</v>
+      </c>
+      <c r="AP145">
+        <v>1.33</v>
+      </c>
+      <c r="AQ145">
+        <v>0.67</v>
+      </c>
+      <c r="AR145">
+        <v>1.63</v>
+      </c>
+      <c r="AS145">
+        <v>1.45</v>
+      </c>
+      <c r="AT145">
+        <v>3.08</v>
+      </c>
+      <c r="AU145">
+        <v>7</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>11</v>
+      </c>
+      <c r="AX145">
+        <v>7</v>
+      </c>
+      <c r="AY145">
+        <v>22</v>
+      </c>
+      <c r="AZ145">
+        <v>15</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>5</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>1.54</v>
+      </c>
+      <c r="BE145">
+        <v>6.5</v>
+      </c>
+      <c r="BF145">
+        <v>2.55</v>
+      </c>
+      <c r="BG145">
+        <v>1.36</v>
+      </c>
+      <c r="BH145">
+        <v>2.75</v>
+      </c>
+      <c r="BI145">
+        <v>1.61</v>
+      </c>
+      <c r="BJ145">
+        <v>2.08</v>
+      </c>
+      <c r="BK145">
+        <v>2.2</v>
+      </c>
+      <c r="BL145">
+        <v>1.67</v>
+      </c>
+      <c r="BM145">
+        <v>2.55</v>
+      </c>
+      <c r="BN145">
+        <v>1.41</v>
+      </c>
+      <c r="BO145">
+        <v>3.35</v>
+      </c>
+      <c r="BP145">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7450796</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45625.6875</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>95</v>
+      </c>
+      <c r="P146" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q146">
+        <v>4.33</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>2.88</v>
+      </c>
+      <c r="T146">
+        <v>1.45</v>
+      </c>
+      <c r="U146">
+        <v>2.55</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>7.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.06</v>
+      </c>
+      <c r="Z146">
+        <v>3.5</v>
+      </c>
+      <c r="AA146">
+        <v>3.2</v>
+      </c>
+      <c r="AB146">
+        <v>2.15</v>
+      </c>
+      <c r="AC146">
+        <v>1.07</v>
+      </c>
+      <c r="AD146">
+        <v>8</v>
+      </c>
+      <c r="AE146">
+        <v>1.38</v>
+      </c>
+      <c r="AF146">
+        <v>3</v>
+      </c>
+      <c r="AG146">
+        <v>2.25</v>
+      </c>
+      <c r="AH146">
+        <v>1.62</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.7</v>
+      </c>
+      <c r="AL146">
+        <v>1.28</v>
+      </c>
+      <c r="AM146">
+        <v>1.28</v>
+      </c>
+      <c r="AN146">
+        <v>1.29</v>
+      </c>
+      <c r="AO146">
+        <v>1.86</v>
+      </c>
+      <c r="AP146">
+        <v>1.25</v>
+      </c>
+      <c r="AQ146">
+        <v>1.75</v>
+      </c>
+      <c r="AR146">
+        <v>1.5</v>
+      </c>
+      <c r="AS146">
+        <v>1.33</v>
+      </c>
+      <c r="AT146">
+        <v>2.83</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>3</v>
+      </c>
+      <c r="AX146">
+        <v>2</v>
+      </c>
+      <c r="AY146">
+        <v>9</v>
+      </c>
+      <c r="AZ146">
+        <v>6</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>10</v>
+      </c>
+      <c r="BD146">
+        <v>2.32</v>
+      </c>
+      <c r="BE146">
+        <v>6.4</v>
+      </c>
+      <c r="BF146">
+        <v>1.67</v>
+      </c>
+      <c r="BG146">
+        <v>1.47</v>
+      </c>
+      <c r="BH146">
+        <v>2.4</v>
+      </c>
+      <c r="BI146">
+        <v>1.79</v>
+      </c>
+      <c r="BJ146">
+        <v>1.85</v>
+      </c>
+      <c r="BK146">
+        <v>2.28</v>
+      </c>
+      <c r="BL146">
+        <v>1.52</v>
+      </c>
+      <c r="BM146">
+        <v>2.95</v>
+      </c>
+      <c r="BN146">
+        <v>1.3</v>
+      </c>
+      <c r="BO146">
+        <v>4.1</v>
+      </c>
+      <c r="BP146">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7450800</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45626.44791666666</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>95</v>
+      </c>
+      <c r="P147" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q147">
+        <v>2.6</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>1.8</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>3.75</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>9.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.33</v>
+      </c>
+      <c r="AF147">
+        <v>3.3</v>
+      </c>
+      <c r="AG147">
+        <v>2.25</v>
+      </c>
+      <c r="AH147">
+        <v>1.62</v>
+      </c>
+      <c r="AI147">
+        <v>2.1</v>
+      </c>
+      <c r="AJ147">
+        <v>1.67</v>
+      </c>
+      <c r="AK147">
+        <v>1.22</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>1.91</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>0.25</v>
+      </c>
+      <c r="AP147">
+        <v>0.88</v>
+      </c>
+      <c r="AQ147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR147">
+        <v>1.42</v>
+      </c>
+      <c r="AS147">
+        <v>0.98</v>
+      </c>
+      <c r="AT147">
+        <v>2.4</v>
+      </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>10</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>28</v>
+      </c>
+      <c r="AZ147">
+        <v>10</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>8</v>
+      </c>
+      <c r="BD147">
+        <v>1.49</v>
+      </c>
+      <c r="BE147">
+        <v>6.4</v>
+      </c>
+      <c r="BF147">
+        <v>2.7</v>
+      </c>
+      <c r="BG147">
+        <v>1.34</v>
+      </c>
+      <c r="BH147">
+        <v>2.85</v>
+      </c>
+      <c r="BI147">
+        <v>1.58</v>
+      </c>
+      <c r="BJ147">
+        <v>2.12</v>
+      </c>
+      <c r="BK147">
+        <v>2.2</v>
+      </c>
+      <c r="BL147">
+        <v>1.7</v>
+      </c>
+      <c r="BM147">
+        <v>2.5</v>
+      </c>
+      <c r="BN147">
+        <v>1.43</v>
+      </c>
+      <c r="BO147">
+        <v>3.2</v>
+      </c>
+      <c r="BP147">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7450793</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45626.5625</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>192</v>
+      </c>
+      <c r="P148" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q148">
+        <v>2.25</v>
+      </c>
+      <c r="R148">
+        <v>2.38</v>
+      </c>
+      <c r="S148">
+        <v>4.75</v>
+      </c>
+      <c r="T148">
+        <v>1.3</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.39</v>
+      </c>
+      <c r="W148">
+        <v>1.52</v>
+      </c>
+      <c r="X148">
+        <v>5.45</v>
+      </c>
+      <c r="Y148">
+        <v>1.12</v>
+      </c>
+      <c r="Z148">
+        <v>1.67</v>
+      </c>
+      <c r="AA148">
+        <v>3.8</v>
+      </c>
+      <c r="AB148">
+        <v>4.75</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.18</v>
+      </c>
+      <c r="AF148">
+        <v>4.5</v>
+      </c>
+      <c r="AG148">
+        <v>1.6</v>
+      </c>
+      <c r="AH148">
+        <v>2.3</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.16</v>
+      </c>
+      <c r="AL148">
+        <v>1.18</v>
+      </c>
+      <c r="AM148">
+        <v>2.15</v>
+      </c>
+      <c r="AN148">
+        <v>1.13</v>
+      </c>
+      <c r="AO148">
+        <v>0.75</v>
+      </c>
+      <c r="AP148">
+        <v>1.33</v>
+      </c>
+      <c r="AQ148">
+        <v>0.67</v>
+      </c>
+      <c r="AR148">
+        <v>1.73</v>
+      </c>
+      <c r="AS148">
+        <v>1.21</v>
+      </c>
+      <c r="AT148">
+        <v>2.94</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>17</v>
+      </c>
+      <c r="AZ148">
+        <v>14</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>9</v>
+      </c>
+      <c r="BD148">
+        <v>1.41</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>2.95</v>
+      </c>
+      <c r="BG148">
+        <v>1.35</v>
+      </c>
+      <c r="BH148">
+        <v>2.8</v>
+      </c>
+      <c r="BI148">
+        <v>1.61</v>
+      </c>
+      <c r="BJ148">
+        <v>2.1</v>
+      </c>
+      <c r="BK148">
+        <v>2.25</v>
+      </c>
+      <c r="BL148">
+        <v>1.68</v>
+      </c>
+      <c r="BM148">
+        <v>2.55</v>
+      </c>
+      <c r="BN148">
+        <v>1.42</v>
+      </c>
+      <c r="BO148">
+        <v>3.35</v>
+      </c>
+      <c r="BP148">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7450799</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45626.67708333334</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>82</v>
+      </c>
+      <c r="H149" t="s">
+        <v>86</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>5</v>
+      </c>
+      <c r="O149" t="s">
+        <v>193</v>
+      </c>
+      <c r="P149" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>2.88</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>9</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>3.44</v>
+      </c>
+      <c r="AA149">
+        <v>3.12</v>
+      </c>
+      <c r="AB149">
+        <v>2.04</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.36</v>
+      </c>
+      <c r="AF149">
+        <v>3.1</v>
+      </c>
+      <c r="AG149">
+        <v>2</v>
+      </c>
+      <c r="AH149">
+        <v>1.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.95</v>
+      </c>
+      <c r="AJ149">
+        <v>1.8</v>
+      </c>
+      <c r="AK149">
+        <v>1.7</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.3</v>
+      </c>
+      <c r="AN149">
+        <v>1.86</v>
+      </c>
+      <c r="AO149">
+        <v>2.25</v>
+      </c>
+      <c r="AP149">
+        <v>1.63</v>
+      </c>
+      <c r="AQ149">
+        <v>2.33</v>
+      </c>
+      <c r="AR149">
+        <v>1.41</v>
+      </c>
+      <c r="AS149">
+        <v>1.41</v>
+      </c>
+      <c r="AT149">
+        <v>2.82</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>11</v>
+      </c>
+      <c r="AY149">
+        <v>13</v>
+      </c>
+      <c r="AZ149">
+        <v>19</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>3</v>
+      </c>
+      <c r="BD149">
+        <v>2.28</v>
+      </c>
+      <c r="BE149">
+        <v>6.4</v>
+      </c>
+      <c r="BF149">
+        <v>1.71</v>
+      </c>
+      <c r="BG149">
+        <v>1.26</v>
+      </c>
+      <c r="BH149">
+        <v>3.25</v>
+      </c>
+      <c r="BI149">
+        <v>1.46</v>
+      </c>
+      <c r="BJ149">
+        <v>2.4</v>
+      </c>
+      <c r="BK149">
+        <v>2.2</v>
+      </c>
+      <c r="BL149">
+        <v>1.89</v>
+      </c>
+      <c r="BM149">
+        <v>2.2</v>
+      </c>
+      <c r="BN149">
+        <v>1.55</v>
+      </c>
+      <c r="BO149">
+        <v>2.8</v>
+      </c>
+      <c r="BP149">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -31819,22 +31819,22 @@
         <v>2.82</v>
       </c>
       <c r="AU149">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW149">
         <v>6</v>
       </c>
       <c r="AX149">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY149">
         <v>13</v>
       </c>
       <c r="AZ149">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA149">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,15 @@
     <t>['3', '56']</t>
   </si>
   <si>
+    <t>['83', '87']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['28', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -824,6 +833,15 @@
   </si>
   <si>
     <t>['6', '39', '90+4']</t>
+  </si>
+  <si>
+    <t>['49', '59', '78', '82']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['12', '63']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,7 +1874,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2140,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -2474,7 +2492,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2761,7 +2779,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2886,7 +2904,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3092,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3170,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3298,7 +3316,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3379,7 +3397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3504,7 +3522,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3710,7 +3728,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3788,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3916,7 +3934,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -3997,7 +4015,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4122,7 +4140,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4328,7 +4346,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4818,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5564,7 +5582,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6182,7 +6200,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6388,7 +6406,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6594,7 +6612,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6800,7 +6818,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6881,7 +6899,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>2.08</v>
@@ -7212,7 +7230,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7290,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -7496,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7624,7 +7642,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7830,7 +7848,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7911,7 +7929,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8242,7 +8260,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8860,7 +8878,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9066,7 +9084,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9350,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9684,7 +9702,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10174,7 +10192,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>1.22</v>
@@ -10302,7 +10320,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10508,7 +10526,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10920,7 +10938,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11001,7 +11019,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR48">
         <v>0.96</v>
@@ -11332,7 +11350,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11413,7 +11431,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11825,7 +11843,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12028,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12156,7 +12174,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12362,7 +12380,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12440,7 +12458,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>1.75</v>
@@ -12980,7 +12998,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13186,7 +13204,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13392,7 +13410,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13598,7 +13616,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13676,7 +13694,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ61">
         <v>0.38</v>
@@ -14091,7 +14109,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14216,7 +14234,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14628,7 +14646,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14915,7 +14933,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ67">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -15324,7 +15342,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15452,7 +15470,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15942,10 +15960,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16070,7 +16088,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16276,7 +16294,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16972,7 +16990,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
         <v>1.63</v>
@@ -17100,7 +17118,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17512,7 +17530,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17593,7 +17611,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -18623,7 +18641,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR85">
         <v>1.53</v>
@@ -18954,7 +18972,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19032,7 +19050,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -19160,7 +19178,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19241,7 +19259,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19366,7 +19384,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19572,7 +19590,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19778,7 +19796,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19984,7 +20002,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20062,7 +20080,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20190,7 +20208,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20396,7 +20414,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20602,7 +20620,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20808,7 +20826,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21092,7 +21110,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ97">
         <v>1.22</v>
@@ -21301,7 +21319,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -21426,7 +21444,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21504,7 +21522,7 @@
         <v>1.17</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -21632,7 +21650,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21713,7 +21731,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -21838,7 +21856,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22044,7 +22062,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22125,7 +22143,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.67</v>
@@ -22250,7 +22268,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22662,7 +22680,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23280,7 +23298,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23486,7 +23504,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23770,7 +23788,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
         <v>0.5600000000000001</v>
@@ -23898,7 +23916,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24516,7 +24534,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24594,7 +24612,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
         <v>0.67</v>
@@ -24928,7 +24946,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25009,7 +25027,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25134,7 +25152,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25546,7 +25564,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25958,7 +25976,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26164,7 +26182,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26245,7 +26263,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ122">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR122">
         <v>2.04</v>
@@ -26370,7 +26388,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26576,7 +26594,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26782,7 +26800,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27194,7 +27212,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27400,7 +27418,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27478,7 +27496,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ128">
         <v>0.86</v>
@@ -27684,7 +27702,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -27812,7 +27830,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28224,7 +28242,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28305,7 +28323,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ132">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR132">
         <v>1.49</v>
@@ -28508,7 +28526,7 @@
         <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133">
         <v>0.5600000000000001</v>
@@ -28636,7 +28654,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28842,7 +28860,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28923,7 +28941,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ135">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.91</v>
@@ -29048,7 +29066,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29254,7 +29272,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29460,7 +29478,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29872,7 +29890,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30078,7 +30096,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31726,7 +31744,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31883,6 +31901,624 @@
       </c>
       <c r="BP149">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7450794</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45627.34375</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>85</v>
+      </c>
+      <c r="H150" t="s">
+        <v>87</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>6</v>
+      </c>
+      <c r="O150" t="s">
+        <v>194</v>
+      </c>
+      <c r="P150" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q150">
+        <v>3.4</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>3.4</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>9</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>2.63</v>
+      </c>
+      <c r="AA150">
+        <v>3.25</v>
+      </c>
+      <c r="AB150">
+        <v>2.7</v>
+      </c>
+      <c r="AC150">
+        <v>1.07</v>
+      </c>
+      <c r="AD150">
+        <v>8</v>
+      </c>
+      <c r="AE150">
+        <v>1.36</v>
+      </c>
+      <c r="AF150">
+        <v>3.1</v>
+      </c>
+      <c r="AG150">
+        <v>2.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.7</v>
+      </c>
+      <c r="AI150">
+        <v>1.8</v>
+      </c>
+      <c r="AJ150">
+        <v>1.95</v>
+      </c>
+      <c r="AK150">
+        <v>1.45</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.48</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
+        <v>1.38</v>
+      </c>
+      <c r="AP150">
+        <v>0.88</v>
+      </c>
+      <c r="AQ150">
+        <v>1.56</v>
+      </c>
+      <c r="AR150">
+        <v>1.43</v>
+      </c>
+      <c r="AS150">
+        <v>1.25</v>
+      </c>
+      <c r="AT150">
+        <v>2.68</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>13</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>14</v>
+      </c>
+      <c r="AZ150">
+        <v>20</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>5</v>
+      </c>
+      <c r="BC150">
+        <v>9</v>
+      </c>
+      <c r="BD150">
+        <v>1.53</v>
+      </c>
+      <c r="BE150">
+        <v>6.4</v>
+      </c>
+      <c r="BF150">
+        <v>2.55</v>
+      </c>
+      <c r="BG150">
+        <v>1.3</v>
+      </c>
+      <c r="BH150">
+        <v>3.05</v>
+      </c>
+      <c r="BI150">
+        <v>1.53</v>
+      </c>
+      <c r="BJ150">
+        <v>2.25</v>
+      </c>
+      <c r="BK150">
+        <v>2.25</v>
+      </c>
+      <c r="BL150">
+        <v>1.78</v>
+      </c>
+      <c r="BM150">
+        <v>2.33</v>
+      </c>
+      <c r="BN150">
+        <v>1.49</v>
+      </c>
+      <c r="BO150">
+        <v>3.05</v>
+      </c>
+      <c r="BP150">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7450797</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45627.44791666666</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151" t="s">
+        <v>70</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+      <c r="P151" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q151">
+        <v>2.6</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>3.6</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.38</v>
+      </c>
+      <c r="W151">
+        <v>1.53</v>
+      </c>
+      <c r="X151">
+        <v>5.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.14</v>
+      </c>
+      <c r="Z151">
+        <v>2.05</v>
+      </c>
+      <c r="AA151">
+        <v>3.5</v>
+      </c>
+      <c r="AB151">
+        <v>3.4</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
+        <v>1.18</v>
+      </c>
+      <c r="AF151">
+        <v>4.75</v>
+      </c>
+      <c r="AG151">
+        <v>1.57</v>
+      </c>
+      <c r="AH151">
+        <v>2.35</v>
+      </c>
+      <c r="AI151">
+        <v>1.5</v>
+      </c>
+      <c r="AJ151">
+        <v>2.5</v>
+      </c>
+      <c r="AK151">
+        <v>1.35</v>
+      </c>
+      <c r="AL151">
+        <v>1.25</v>
+      </c>
+      <c r="AM151">
+        <v>1.62</v>
+      </c>
+      <c r="AN151">
+        <v>2.63</v>
+      </c>
+      <c r="AO151">
+        <v>2.14</v>
+      </c>
+      <c r="AP151">
+        <v>2.44</v>
+      </c>
+      <c r="AQ151">
+        <v>2</v>
+      </c>
+      <c r="AR151">
+        <v>1.81</v>
+      </c>
+      <c r="AS151">
+        <v>0.98</v>
+      </c>
+      <c r="AT151">
+        <v>2.79</v>
+      </c>
+      <c r="AU151">
+        <v>7</v>
+      </c>
+      <c r="AV151">
+        <v>8</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>7</v>
+      </c>
+      <c r="AY151">
+        <v>18</v>
+      </c>
+      <c r="AZ151">
+        <v>16</v>
+      </c>
+      <c r="BA151">
+        <v>4</v>
+      </c>
+      <c r="BB151">
+        <v>8</v>
+      </c>
+      <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
+        <v>1.74</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>2.2</v>
+      </c>
+      <c r="BG151">
+        <v>1.22</v>
+      </c>
+      <c r="BH151">
+        <v>3.55</v>
+      </c>
+      <c r="BI151">
+        <v>1.41</v>
+      </c>
+      <c r="BJ151">
+        <v>2.55</v>
+      </c>
+      <c r="BK151">
+        <v>1.91</v>
+      </c>
+      <c r="BL151">
+        <v>2</v>
+      </c>
+      <c r="BM151">
+        <v>2.07</v>
+      </c>
+      <c r="BN151">
+        <v>1.63</v>
+      </c>
+      <c r="BO151">
+        <v>2.63</v>
+      </c>
+      <c r="BP151">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7450798</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45627.5625</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>74</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>196</v>
+      </c>
+      <c r="P152" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q152">
+        <v>4.5</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>2.5</v>
+      </c>
+      <c r="T152">
+        <v>1.4</v>
+      </c>
+      <c r="U152">
+        <v>2.75</v>
+      </c>
+      <c r="V152">
+        <v>2.75</v>
+      </c>
+      <c r="W152">
+        <v>1.4</v>
+      </c>
+      <c r="X152">
+        <v>8</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>3.63</v>
+      </c>
+      <c r="AA152">
+        <v>3.26</v>
+      </c>
+      <c r="AB152">
+        <v>1.93</v>
+      </c>
+      <c r="AC152">
+        <v>1.05</v>
+      </c>
+      <c r="AD152">
+        <v>9.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.28</v>
+      </c>
+      <c r="AF152">
+        <v>3.55</v>
+      </c>
+      <c r="AG152">
+        <v>1.99</v>
+      </c>
+      <c r="AH152">
+        <v>1.89</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.9</v>
+      </c>
+      <c r="AL152">
+        <v>1.22</v>
+      </c>
+      <c r="AM152">
+        <v>1.22</v>
+      </c>
+      <c r="AN152">
+        <v>1.75</v>
+      </c>
+      <c r="AO152">
+        <v>1.29</v>
+      </c>
+      <c r="AP152">
+        <v>1.67</v>
+      </c>
+      <c r="AQ152">
+        <v>1.25</v>
+      </c>
+      <c r="AR152">
+        <v>1.7</v>
+      </c>
+      <c r="AS152">
+        <v>1.62</v>
+      </c>
+      <c r="AT152">
+        <v>3.32</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>3</v>
+      </c>
+      <c r="AY152">
+        <v>22</v>
+      </c>
+      <c r="AZ152">
+        <v>9</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>2.55</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>1.54</v>
+      </c>
+      <c r="BG152">
+        <v>1.4</v>
+      </c>
+      <c r="BH152">
+        <v>2.6</v>
+      </c>
+      <c r="BI152">
+        <v>1.7</v>
+      </c>
+      <c r="BJ152">
+        <v>1.97</v>
+      </c>
+      <c r="BK152">
+        <v>2.38</v>
+      </c>
+      <c r="BL152">
+        <v>1.6</v>
+      </c>
+      <c r="BM152">
+        <v>2.75</v>
+      </c>
+      <c r="BN152">
+        <v>1.36</v>
+      </c>
+      <c r="BO152">
+        <v>3.65</v>
+      </c>
+      <c r="BP152">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>['28', '90+1']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
   <si>
     <t>['24', '37']</t>
@@ -1203,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1874,7 +1877,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1955,7 +1958,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2492,7 +2495,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2904,7 +2907,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2982,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
         <v>2.33</v>
@@ -3110,7 +3113,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3316,7 +3319,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3522,7 +3525,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3728,7 +3731,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3934,7 +3937,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4140,7 +4143,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4346,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5582,7 +5585,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6200,7 +6203,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6278,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
         <v>1.11</v>
@@ -6406,7 +6409,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6612,7 +6615,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6818,7 +6821,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7230,7 +7233,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7642,7 +7645,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7848,7 +7851,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8260,7 +8263,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8878,7 +8881,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9084,7 +9087,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9702,7 +9705,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9783,7 +9786,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10320,7 +10323,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10401,7 +10404,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ45">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -10526,7 +10529,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10810,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>0.5600000000000001</v>
@@ -10938,7 +10941,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11350,7 +11353,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12174,7 +12177,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12380,7 +12383,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12998,7 +13001,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13204,7 +13207,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13410,7 +13413,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13616,7 +13619,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14106,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
         <v>1.56</v>
@@ -14234,7 +14237,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14521,7 +14524,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14646,7 +14649,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15470,7 +15473,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16088,7 +16091,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16294,7 +16297,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17118,7 +17121,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17530,7 +17533,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17608,7 +17611,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -18432,7 +18435,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>0.38</v>
@@ -18847,7 +18850,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -18972,7 +18975,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19178,7 +19181,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19384,7 +19387,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19590,7 +19593,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19796,7 +19799,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20002,7 +20005,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20208,7 +20211,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20414,7 +20417,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20620,7 +20623,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20826,7 +20829,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21444,7 +21447,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21650,7 +21653,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21856,7 +21859,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -21934,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22062,7 +22065,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22268,7 +22271,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22680,7 +22683,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -23298,7 +23301,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23504,7 +23507,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23916,7 +23919,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24409,7 +24412,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24534,7 +24537,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24946,7 +24949,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25152,7 +25155,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25564,7 +25567,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25642,7 +25645,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>0.5</v>
@@ -25976,7 +25979,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26182,7 +26185,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26388,7 +26391,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26594,7 +26597,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26800,7 +26803,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27212,7 +27215,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27418,7 +27421,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27499,7 +27502,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ128">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -27830,7 +27833,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28242,7 +28245,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28654,7 +28657,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28860,7 +28863,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29066,7 +29069,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29272,7 +29275,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29478,7 +29481,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29890,7 +29893,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30096,7 +30099,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -31640,13 +31643,13 @@
         <v>5</v>
       </c>
       <c r="AX148">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY148">
         <v>17</v>
       </c>
       <c r="AZ148">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA148">
         <v>5</v>
@@ -31744,7 +31747,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31950,7 +31953,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32156,7 +32159,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32362,7 +32365,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32519,6 +32522,212 @@
       </c>
       <c r="BP152">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7450795</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45628.625</v>
+      </c>
+      <c r="F153">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>77</v>
+      </c>
+      <c r="H153" t="s">
+        <v>81</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>197</v>
+      </c>
+      <c r="P153" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q153">
+        <v>2.88</v>
+      </c>
+      <c r="R153">
+        <v>2.2</v>
+      </c>
+      <c r="S153">
+        <v>3.75</v>
+      </c>
+      <c r="T153">
+        <v>1.36</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>2.1</v>
+      </c>
+      <c r="AA153">
+        <v>3.2</v>
+      </c>
+      <c r="AB153">
+        <v>3.2</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>9</v>
+      </c>
+      <c r="AE153">
+        <v>1.25</v>
+      </c>
+      <c r="AF153">
+        <v>3.6</v>
+      </c>
+      <c r="AG153">
+        <v>1.85</v>
+      </c>
+      <c r="AH153">
+        <v>1.95</v>
+      </c>
+      <c r="AI153">
+        <v>1.67</v>
+      </c>
+      <c r="AJ153">
+        <v>2.1</v>
+      </c>
+      <c r="AK153">
+        <v>1.38</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.6</v>
+      </c>
+      <c r="AN153">
+        <v>1.38</v>
+      </c>
+      <c r="AO153">
+        <v>0.86</v>
+      </c>
+      <c r="AP153">
+        <v>1.56</v>
+      </c>
+      <c r="AQ153">
+        <v>0.75</v>
+      </c>
+      <c r="AR153">
+        <v>1.63</v>
+      </c>
+      <c r="AS153">
+        <v>1.37</v>
+      </c>
+      <c r="AT153">
+        <v>3</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>9</v>
+      </c>
+      <c r="AW153">
+        <v>9</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>21</v>
+      </c>
+      <c r="AZ153">
+        <v>20</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>7</v>
+      </c>
+      <c r="BC153">
+        <v>11</v>
+      </c>
+      <c r="BD153">
+        <v>1.55</v>
+      </c>
+      <c r="BE153">
+        <v>6.4</v>
+      </c>
+      <c r="BF153">
+        <v>2.5</v>
+      </c>
+      <c r="BG153">
+        <v>1.17</v>
+      </c>
+      <c r="BH153">
+        <v>4.1</v>
+      </c>
+      <c r="BI153">
+        <v>1.32</v>
+      </c>
+      <c r="BJ153">
+        <v>2.9</v>
+      </c>
+      <c r="BK153">
+        <v>2.1</v>
+      </c>
+      <c r="BL153">
+        <v>2.23</v>
+      </c>
+      <c r="BM153">
+        <v>2.05</v>
+      </c>
+      <c r="BN153">
+        <v>1.7</v>
+      </c>
+      <c r="BO153">
+        <v>2.3</v>
+      </c>
+      <c r="BP153">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,9 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['4', '14']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -845,6 +848,9 @@
   </si>
   <si>
     <t>['12', '63']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1877,7 +1883,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2495,7 +2501,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2907,7 +2913,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3113,7 +3119,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3319,7 +3325,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3525,7 +3531,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3731,7 +3737,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3812,7 +3818,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>1.41</v>
@@ -3937,7 +3943,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4143,7 +4149,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4224,7 +4230,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4349,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5457,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5585,7 +5591,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6203,7 +6209,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6409,7 +6415,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6615,7 +6621,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6821,7 +6827,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6899,7 +6905,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28">
         <v>1.56</v>
@@ -7108,7 +7114,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR29">
         <v>2.17</v>
@@ -7233,7 +7239,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7645,7 +7651,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7851,7 +7857,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8263,7 +8269,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8344,7 +8350,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8881,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9087,7 +9093,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9168,7 +9174,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9705,7 +9711,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9989,7 +9995,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43">
         <v>2.33</v>
@@ -10323,7 +10329,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10529,7 +10535,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10941,7 +10947,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11353,7 +11359,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12177,7 +12183,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12383,7 +12389,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12464,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12876,7 +12882,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.6</v>
@@ -13001,7 +13007,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13079,7 +13085,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58">
         <v>2.25</v>
@@ -13207,7 +13213,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13285,7 +13291,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13413,7 +13419,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13619,7 +13625,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14237,7 +14243,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14649,7 +14655,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15473,7 +15479,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15757,7 +15763,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ71">
         <v>1.11</v>
@@ -16091,7 +16097,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16297,7 +16303,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16787,10 +16793,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17121,7 +17127,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17533,7 +17539,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18975,7 +18981,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19056,7 +19062,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19181,7 +19187,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19387,7 +19393,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19593,7 +19599,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19674,7 +19680,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19799,7 +19805,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20005,7 +20011,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20211,7 +20217,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20289,7 +20295,7 @@
         <v>2.6</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ93">
         <v>2.33</v>
@@ -20417,7 +20423,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20495,7 +20501,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20623,7 +20629,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20829,7 +20835,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21447,7 +21453,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21653,7 +21659,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21859,7 +21865,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22065,7 +22071,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22271,7 +22277,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22352,7 +22358,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR103">
         <v>1.6</v>
@@ -22683,7 +22689,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22761,7 +22767,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -23173,7 +23179,7 @@
         <v>0.4</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>0.5600000000000001</v>
@@ -23301,7 +23307,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23507,7 +23513,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23919,7 +23925,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24537,7 +24543,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24949,7 +24955,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25155,7 +25161,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25236,7 +25242,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ117">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25567,7 +25573,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25854,7 +25860,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25979,7 +25985,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26057,7 +26063,7 @@
         <v>1.43</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121">
         <v>1.22</v>
@@ -26185,7 +26191,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26263,7 +26269,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
         <v>2</v>
@@ -26391,7 +26397,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26597,7 +26603,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26803,7 +26809,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27215,7 +27221,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27421,7 +27427,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27833,7 +27839,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27914,7 +27920,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -28245,7 +28251,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28657,7 +28663,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28863,7 +28869,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29069,7 +29075,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29275,7 +29281,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29481,7 +29487,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29768,7 +29774,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ139">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR139">
         <v>1.94</v>
@@ -29893,7 +29899,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30099,7 +30105,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30177,7 +30183,7 @@
         <v>0.14</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ141">
         <v>0.5</v>
@@ -30589,7 +30595,7 @@
         <v>1.38</v>
       </c>
       <c r="AP143">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ143">
         <v>1.22</v>
@@ -31210,7 +31216,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR146">
         <v>1.5</v>
@@ -31747,7 +31753,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31953,7 +31959,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32159,7 +32165,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32365,7 +32371,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32728,6 +32734,418 @@
       </c>
       <c r="BP153">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7450807</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F154">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>81</v>
+      </c>
+      <c r="H154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>133</v>
+      </c>
+      <c r="P154" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>3.25</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
+        <v>3.25</v>
+      </c>
+      <c r="V154">
+        <v>2.63</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>6.5</v>
+      </c>
+      <c r="Y154">
+        <v>1.11</v>
+      </c>
+      <c r="Z154">
+        <v>2.45</v>
+      </c>
+      <c r="AA154">
+        <v>3.4</v>
+      </c>
+      <c r="AB154">
+        <v>2.8</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>9.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.22</v>
+      </c>
+      <c r="AF154">
+        <v>4</v>
+      </c>
+      <c r="AG154">
+        <v>1.73</v>
+      </c>
+      <c r="AH154">
+        <v>2.08</v>
+      </c>
+      <c r="AI154">
+        <v>1.62</v>
+      </c>
+      <c r="AJ154">
+        <v>2.2</v>
+      </c>
+      <c r="AK154">
+        <v>1.36</v>
+      </c>
+      <c r="AL154">
+        <v>1.22</v>
+      </c>
+      <c r="AM154">
+        <v>1.66</v>
+      </c>
+      <c r="AN154">
+        <v>1.25</v>
+      </c>
+      <c r="AO154">
+        <v>1.25</v>
+      </c>
+      <c r="AP154">
+        <v>1.22</v>
+      </c>
+      <c r="AQ154">
+        <v>1.22</v>
+      </c>
+      <c r="AR154">
+        <v>1.51</v>
+      </c>
+      <c r="AS154">
+        <v>1.48</v>
+      </c>
+      <c r="AT154">
+        <v>2.99</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>14</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>24</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>5</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>1.75</v>
+      </c>
+      <c r="BE154">
+        <v>7</v>
+      </c>
+      <c r="BF154">
+        <v>2.38</v>
+      </c>
+      <c r="BG154">
+        <v>1.17</v>
+      </c>
+      <c r="BH154">
+        <v>4.35</v>
+      </c>
+      <c r="BI154">
+        <v>1.37</v>
+      </c>
+      <c r="BJ154">
+        <v>2.82</v>
+      </c>
+      <c r="BK154">
+        <v>2.38</v>
+      </c>
+      <c r="BL154">
+        <v>2.05</v>
+      </c>
+      <c r="BM154">
+        <v>2.12</v>
+      </c>
+      <c r="BN154">
+        <v>1.62</v>
+      </c>
+      <c r="BO154">
+        <v>2.85</v>
+      </c>
+      <c r="BP154">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7450801</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45632.6875</v>
+      </c>
+      <c r="F155">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>198</v>
+      </c>
+      <c r="P155" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q155">
+        <v>3.25</v>
+      </c>
+      <c r="R155">
+        <v>2.2</v>
+      </c>
+      <c r="S155">
+        <v>3.1</v>
+      </c>
+      <c r="T155">
+        <v>1.37</v>
+      </c>
+      <c r="U155">
+        <v>2.85</v>
+      </c>
+      <c r="V155">
+        <v>2.75</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>6.95</v>
+      </c>
+      <c r="Y155">
+        <v>1.07</v>
+      </c>
+      <c r="Z155">
+        <v>2.7</v>
+      </c>
+      <c r="AA155">
+        <v>3.3</v>
+      </c>
+      <c r="AB155">
+        <v>2.5</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
+        <v>9</v>
+      </c>
+      <c r="AE155">
+        <v>1.28</v>
+      </c>
+      <c r="AF155">
+        <v>3.5</v>
+      </c>
+      <c r="AG155">
+        <v>1.8</v>
+      </c>
+      <c r="AH155">
+        <v>2</v>
+      </c>
+      <c r="AI155">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155">
+        <v>2.1</v>
+      </c>
+      <c r="AK155">
+        <v>1.75</v>
+      </c>
+      <c r="AL155">
+        <v>1.22</v>
+      </c>
+      <c r="AM155">
+        <v>1.3</v>
+      </c>
+      <c r="AN155">
+        <v>1.63</v>
+      </c>
+      <c r="AO155">
+        <v>1.75</v>
+      </c>
+      <c r="AP155">
+        <v>1.78</v>
+      </c>
+      <c r="AQ155">
+        <v>1.56</v>
+      </c>
+      <c r="AR155">
+        <v>1.98</v>
+      </c>
+      <c r="AS155">
+        <v>1.29</v>
+      </c>
+      <c r="AT155">
+        <v>3.27</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>13</v>
+      </c>
+      <c r="AY155">
+        <v>18</v>
+      </c>
+      <c r="AZ155">
+        <v>22</v>
+      </c>
+      <c r="BA155">
+        <v>3</v>
+      </c>
+      <c r="BB155">
+        <v>9</v>
+      </c>
+      <c r="BC155">
+        <v>12</v>
+      </c>
+      <c r="BD155">
+        <v>2.4</v>
+      </c>
+      <c r="BE155">
+        <v>6.75</v>
+      </c>
+      <c r="BF155">
+        <v>1.68</v>
+      </c>
+      <c r="BG155">
+        <v>1.38</v>
+      </c>
+      <c r="BH155">
+        <v>2.65</v>
+      </c>
+      <c r="BI155">
+        <v>1.67</v>
+      </c>
+      <c r="BJ155">
+        <v>2</v>
+      </c>
+      <c r="BK155">
+        <v>2.2</v>
+      </c>
+      <c r="BL155">
+        <v>1.61</v>
+      </c>
+      <c r="BM155">
+        <v>2.7</v>
+      </c>
+      <c r="BN155">
+        <v>1.37</v>
+      </c>
+      <c r="BO155">
+        <v>3.65</v>
+      </c>
+      <c r="BP155">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,15 @@
     <t>['4', '14']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['22', '85']</t>
+  </si>
+  <si>
+    <t>['10', '90+4']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -710,9 +719,6 @@
   </si>
   <si>
     <t>['72']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['15', '67']</t>
@@ -851,6 +857,12 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['32', '74']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1883,7 +1895,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2501,7 +2513,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2913,7 +2925,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3119,7 +3131,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3325,7 +3337,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3531,7 +3543,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3609,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3737,7 +3749,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3943,7 +3955,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4149,7 +4161,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4227,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
         <v>1.56</v>
@@ -4355,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4642,7 +4654,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5051,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>2.25</v>
@@ -5591,7 +5603,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5878,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>2.07</v>
@@ -6209,7 +6221,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6415,7 +6427,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6621,7 +6633,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6827,7 +6839,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7111,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1.56</v>
@@ -7239,7 +7251,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7526,7 +7538,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7651,7 +7663,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7729,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7857,7 +7869,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8141,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ34">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8269,7 +8281,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8762,7 +8774,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR37">
         <v>1.91</v>
@@ -8887,7 +8899,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9093,7 +9105,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9711,7 +9723,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10329,7 +10341,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10407,7 +10419,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10535,7 +10547,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10613,7 +10625,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46">
         <v>2.33</v>
@@ -10947,7 +10959,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11359,7 +11371,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -12058,7 +12070,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR53">
         <v>1.28</v>
@@ -12183,7 +12195,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12261,7 +12273,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1.22</v>
@@ -12389,7 +12401,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13007,7 +13019,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13213,7 +13225,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13419,7 +13431,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13500,7 +13512,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>1.47</v>
@@ -13625,7 +13637,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13706,7 +13718,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ61">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR61">
         <v>1.79</v>
@@ -14243,7 +14255,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14527,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14655,7 +14667,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -15479,7 +15491,7 @@
         <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16097,7 +16109,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16303,7 +16315,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16587,7 +16599,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75">
         <v>1.22</v>
@@ -17002,7 +17014,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR77">
         <v>1.21</v>
@@ -17127,7 +17139,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17205,7 +17217,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17414,7 +17426,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ79">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.89</v>
@@ -17539,7 +17551,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18029,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18235,7 +18247,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>0.5600000000000001</v>
@@ -18444,7 +18456,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR84">
         <v>1.58</v>
@@ -18981,7 +18993,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19187,7 +19199,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19393,7 +19405,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19474,7 +19486,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19599,7 +19611,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19805,7 +19817,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19883,7 +19895,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91">
         <v>1.11</v>
@@ -20011,7 +20023,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20217,7 +20229,7 @@
         <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>4.33</v>
@@ -20423,7 +20435,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20629,7 +20641,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20710,7 +20722,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ95">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.94</v>
@@ -20835,7 +20847,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21453,7 +21465,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -21659,7 +21671,7 @@
         <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21737,7 +21749,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ100">
         <v>1.25</v>
@@ -21865,7 +21877,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>3.2</v>
@@ -22071,7 +22083,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22277,7 +22289,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>3.4</v>
@@ -22564,7 +22576,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -22689,7 +22701,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>2.5</v>
@@ -22770,7 +22782,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ105">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
         <v>1.93</v>
@@ -22973,7 +22985,7 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106">
         <v>0.5</v>
@@ -23307,7 +23319,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23388,7 +23400,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR108">
         <v>1.61</v>
@@ -23513,7 +23525,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>2.05</v>
@@ -23925,7 +23937,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>2.5</v>
@@ -24006,7 +24018,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24543,7 +24555,7 @@
         <v>169</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -24955,7 +24967,7 @@
         <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25033,7 +25045,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ116">
         <v>1.56</v>
@@ -25161,7 +25173,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.2</v>
@@ -25445,10 +25457,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR118">
         <v>1.58</v>
@@ -25573,7 +25585,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25985,7 +25997,7 @@
         <v>107</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26191,7 +26203,7 @@
         <v>95</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26397,7 +26409,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26475,7 +26487,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123">
         <v>2.25</v>
@@ -26603,7 +26615,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26809,7 +26821,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27096,7 +27108,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ126">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR126">
         <v>1.67</v>
@@ -27221,7 +27233,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27302,7 +27314,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ127">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.46</v>
@@ -27427,7 +27439,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27839,7 +27851,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28123,7 +28135,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ131">
         <v>0.67</v>
@@ -28251,7 +28263,7 @@
         <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -28663,7 +28675,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28869,7 +28881,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29075,7 +29087,7 @@
         <v>109</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>2.75</v>
@@ -29156,7 +29168,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ136">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29281,7 +29293,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29362,7 +29374,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR137">
         <v>1.82</v>
@@ -29487,7 +29499,7 @@
         <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29565,7 +29577,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ138">
         <v>0.5</v>
@@ -29899,7 +29911,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30105,7 +30117,7 @@
         <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30186,7 +30198,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30389,7 +30401,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -31753,7 +31765,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -31831,7 +31843,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ149">
         <v>2.33</v>
@@ -31959,7 +31971,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32165,7 +32177,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>2.6</v>
@@ -32371,7 +32383,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32882,16 +32894,16 @@
         <v>3</v>
       </c>
       <c r="AW154">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY154">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ154">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA154">
         <v>5</v>
@@ -32989,7 +33001,7 @@
         <v>198</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33085,16 +33097,16 @@
         <v>6</v>
       </c>
       <c r="AV155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW155">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX155">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY155">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ155">
         <v>22</v>
@@ -33146,6 +33158,624 @@
       </c>
       <c r="BP155">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7450804</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45633.44791666666</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>199</v>
+      </c>
+      <c r="P156" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q156">
+        <v>3.5</v>
+      </c>
+      <c r="R156">
+        <v>2.1</v>
+      </c>
+      <c r="S156">
+        <v>3</v>
+      </c>
+      <c r="T156">
+        <v>1.41</v>
+      </c>
+      <c r="U156">
+        <v>2.7</v>
+      </c>
+      <c r="V156">
+        <v>2.8</v>
+      </c>
+      <c r="W156">
+        <v>1.39</v>
+      </c>
+      <c r="X156">
+        <v>7</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>3</v>
+      </c>
+      <c r="AA156">
+        <v>3.4</v>
+      </c>
+      <c r="AB156">
+        <v>2.35</v>
+      </c>
+      <c r="AC156">
+        <v>1.06</v>
+      </c>
+      <c r="AD156">
+        <v>8.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.3</v>
+      </c>
+      <c r="AF156">
+        <v>3.3</v>
+      </c>
+      <c r="AG156">
+        <v>1.95</v>
+      </c>
+      <c r="AH156">
+        <v>1.85</v>
+      </c>
+      <c r="AI156">
+        <v>1.75</v>
+      </c>
+      <c r="AJ156">
+        <v>2</v>
+      </c>
+      <c r="AK156">
+        <v>1.52</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.42</v>
+      </c>
+      <c r="AN156">
+        <v>0.63</v>
+      </c>
+      <c r="AO156">
+        <v>0.38</v>
+      </c>
+      <c r="AP156">
+        <v>0.89</v>
+      </c>
+      <c r="AQ156">
+        <v>0.33</v>
+      </c>
+      <c r="AR156">
+        <v>1.39</v>
+      </c>
+      <c r="AS156">
+        <v>1.3</v>
+      </c>
+      <c r="AT156">
+        <v>2.69</v>
+      </c>
+      <c r="AU156">
+        <v>7</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>3</v>
+      </c>
+      <c r="AX156">
+        <v>8</v>
+      </c>
+      <c r="AY156">
+        <v>14</v>
+      </c>
+      <c r="AZ156">
+        <v>14</v>
+      </c>
+      <c r="BA156">
+        <v>6</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>10</v>
+      </c>
+      <c r="BD156">
+        <v>2.02</v>
+      </c>
+      <c r="BE156">
+        <v>6.5</v>
+      </c>
+      <c r="BF156">
+        <v>1.95</v>
+      </c>
+      <c r="BG156">
+        <v>1.41</v>
+      </c>
+      <c r="BH156">
+        <v>2.55</v>
+      </c>
+      <c r="BI156">
+        <v>1.7</v>
+      </c>
+      <c r="BJ156">
+        <v>1.96</v>
+      </c>
+      <c r="BK156">
+        <v>2.38</v>
+      </c>
+      <c r="BL156">
+        <v>1.6</v>
+      </c>
+      <c r="BM156">
+        <v>2.75</v>
+      </c>
+      <c r="BN156">
+        <v>1.36</v>
+      </c>
+      <c r="BO156">
+        <v>3.65</v>
+      </c>
+      <c r="BP156">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7450809</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45633.5625</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>82</v>
+      </c>
+      <c r="H157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>200</v>
+      </c>
+      <c r="P157" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q157">
+        <v>2.63</v>
+      </c>
+      <c r="R157">
+        <v>2.25</v>
+      </c>
+      <c r="S157">
+        <v>3.75</v>
+      </c>
+      <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3</v>
+      </c>
+      <c r="V157">
+        <v>2.55</v>
+      </c>
+      <c r="W157">
+        <v>1.45</v>
+      </c>
+      <c r="X157">
+        <v>5.75</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>2.05</v>
+      </c>
+      <c r="AA157">
+        <v>3.6</v>
+      </c>
+      <c r="AB157">
+        <v>3.4</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>9.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.25</v>
+      </c>
+      <c r="AF157">
+        <v>3.85</v>
+      </c>
+      <c r="AG157">
+        <v>1.75</v>
+      </c>
+      <c r="AH157">
+        <v>2.05</v>
+      </c>
+      <c r="AI157">
+        <v>1.62</v>
+      </c>
+      <c r="AJ157">
+        <v>2.2</v>
+      </c>
+      <c r="AK157">
+        <v>1.28</v>
+      </c>
+      <c r="AL157">
+        <v>1.22</v>
+      </c>
+      <c r="AM157">
+        <v>1.8</v>
+      </c>
+      <c r="AN157">
+        <v>1.63</v>
+      </c>
+      <c r="AO157">
+        <v>0.5</v>
+      </c>
+      <c r="AP157">
+        <v>1.78</v>
+      </c>
+      <c r="AQ157">
+        <v>0.44</v>
+      </c>
+      <c r="AR157">
+        <v>1.39</v>
+      </c>
+      <c r="AS157">
+        <v>1.27</v>
+      </c>
+      <c r="AT157">
+        <v>2.66</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>15</v>
+      </c>
+      <c r="AZ157">
+        <v>18</v>
+      </c>
+      <c r="BA157">
+        <v>6</v>
+      </c>
+      <c r="BB157">
+        <v>10</v>
+      </c>
+      <c r="BC157">
+        <v>16</v>
+      </c>
+      <c r="BD157">
+        <v>1.68</v>
+      </c>
+      <c r="BE157">
+        <v>6.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.43</v>
+      </c>
+      <c r="BG157">
+        <v>1.36</v>
+      </c>
+      <c r="BH157">
+        <v>2.75</v>
+      </c>
+      <c r="BI157">
+        <v>1.63</v>
+      </c>
+      <c r="BJ157">
+        <v>2.06</v>
+      </c>
+      <c r="BK157">
+        <v>2.2</v>
+      </c>
+      <c r="BL157">
+        <v>1.65</v>
+      </c>
+      <c r="BM157">
+        <v>2.6</v>
+      </c>
+      <c r="BN157">
+        <v>1.4</v>
+      </c>
+      <c r="BO157">
+        <v>3.4</v>
+      </c>
+      <c r="BP157">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7450808</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45633.67708333334</v>
+      </c>
+      <c r="F158">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>86</v>
+      </c>
+      <c r="H158" t="s">
+        <v>77</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>201</v>
+      </c>
+      <c r="P158" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q158">
+        <v>2.1</v>
+      </c>
+      <c r="R158">
+        <v>2.3</v>
+      </c>
+      <c r="S158">
+        <v>6</v>
+      </c>
+      <c r="T158">
+        <v>1.4</v>
+      </c>
+      <c r="U158">
+        <v>2.75</v>
+      </c>
+      <c r="V158">
+        <v>2.75</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>8</v>
+      </c>
+      <c r="Y158">
+        <v>1.08</v>
+      </c>
+      <c r="Z158">
+        <v>1.56</v>
+      </c>
+      <c r="AA158">
+        <v>4</v>
+      </c>
+      <c r="AB158">
+        <v>5.6</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>9.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.28</v>
+      </c>
+      <c r="AF158">
+        <v>3.5</v>
+      </c>
+      <c r="AG158">
+        <v>1.88</v>
+      </c>
+      <c r="AH158">
+        <v>1.9</v>
+      </c>
+      <c r="AI158">
+        <v>1.95</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.06</v>
+      </c>
+      <c r="AL158">
+        <v>1.16</v>
+      </c>
+      <c r="AM158">
+        <v>2.7</v>
+      </c>
+      <c r="AN158">
+        <v>1.75</v>
+      </c>
+      <c r="AO158">
+        <v>1.63</v>
+      </c>
+      <c r="AP158">
+        <v>1.67</v>
+      </c>
+      <c r="AQ158">
+        <v>1.56</v>
+      </c>
+      <c r="AR158">
+        <v>1.55</v>
+      </c>
+      <c r="AS158">
+        <v>1.43</v>
+      </c>
+      <c r="AT158">
+        <v>2.98</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>1</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>10</v>
+      </c>
+      <c r="BB158">
+        <v>1</v>
+      </c>
+      <c r="BC158">
+        <v>11</v>
+      </c>
+      <c r="BD158">
+        <v>1.19</v>
+      </c>
+      <c r="BE158">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF158">
+        <v>5.45</v>
+      </c>
+      <c r="BG158">
+        <v>1.22</v>
+      </c>
+      <c r="BH158">
+        <v>3.7</v>
+      </c>
+      <c r="BI158">
+        <v>1.46</v>
+      </c>
+      <c r="BJ158">
+        <v>2.52</v>
+      </c>
+      <c r="BK158">
+        <v>1.82</v>
+      </c>
+      <c r="BL158">
+        <v>1.85</v>
+      </c>
+      <c r="BM158">
+        <v>2.4</v>
+      </c>
+      <c r="BN158">
+        <v>1.5</v>
+      </c>
+      <c r="BO158">
+        <v>3.3</v>
+      </c>
+      <c r="BP158">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['10', '90+4']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -748,9 +751,6 @@
     <t>['80']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['33', '90+1']</t>
   </si>
   <si>
@@ -863,6 +863,12 @@
   </si>
   <si>
     <t>['32', '74']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['17', '26', '31']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1895,7 +1901,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2513,7 +2519,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2925,7 +2931,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3131,7 +3137,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3337,7 +3343,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3415,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>1.56</v>
@@ -3543,7 +3549,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3749,7 +3755,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3955,7 +3961,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4036,7 +4042,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4161,7 +4167,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4367,7 +4373,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -4445,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4651,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -4860,7 +4866,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5066,7 +5072,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5269,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>0.5600000000000001</v>
@@ -5603,7 +5609,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6221,7 +6227,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6427,7 +6433,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6633,7 +6639,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6839,7 +6845,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7251,7 +7257,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7332,7 +7338,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR30">
         <v>0.86</v>
@@ -7663,7 +7669,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7869,7 +7875,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -7947,10 +7953,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.25</v>
@@ -8281,7 +8287,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8359,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35">
         <v>1.22</v>
@@ -8565,7 +8571,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -8899,7 +8905,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -8980,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR38">
         <v>1.85</v>
@@ -9105,7 +9111,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9183,7 +9189,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
         <v>1.56</v>
@@ -9723,7 +9729,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10341,7 +10347,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10547,7 +10553,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10959,7 +10965,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11243,7 +11249,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11371,7 +11377,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11452,7 +11458,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR50">
         <v>1.73</v>
@@ -11864,7 +11870,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12195,7 +12201,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12401,7 +12407,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -12685,7 +12691,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56">
         <v>1.11</v>
@@ -12891,7 +12897,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13019,7 +13025,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13100,7 +13106,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ58">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13225,7 +13231,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13431,7 +13437,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13637,7 +13643,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14255,7 +14261,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14667,7 +14673,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14954,7 +14960,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR67">
         <v>1.96</v>
@@ -15157,7 +15163,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ68">
         <v>0.5600000000000001</v>
@@ -15984,7 +15990,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16109,7 +16115,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16187,10 +16193,10 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR73">
         <v>1.47</v>
@@ -16315,7 +16321,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17139,7 +17145,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17551,7 +17557,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17632,7 +17638,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR80">
         <v>1.47</v>
@@ -18865,7 +18871,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
         <v>0.75</v>
@@ -18993,7 +18999,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19199,7 +19205,7 @@
         <v>95</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19277,10 +19283,10 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR88">
         <v>1.53</v>
@@ -19405,7 +19411,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19611,7 +19617,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19689,7 +19695,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ90">
         <v>1.22</v>
@@ -19817,7 +19823,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20023,7 +20029,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -20435,7 +20441,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.63</v>
@@ -20928,7 +20934,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21340,7 +21346,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR98">
         <v>1.72</v>
@@ -21752,7 +21758,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR100">
         <v>1.26</v>
@@ -22161,10 +22167,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR102">
         <v>1.67</v>
@@ -23603,7 +23609,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ109">
         <v>0.67</v>
@@ -25869,7 +25875,7 @@
         <v>2.17</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120">
         <v>1.56</v>
@@ -26284,7 +26290,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR122">
         <v>2.04</v>
@@ -26490,7 +26496,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ123">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR123">
         <v>1.23</v>
@@ -27105,7 +27111,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
         <v>0.33</v>
@@ -27311,7 +27317,7 @@
         <v>1.17</v>
       </c>
       <c r="AP127">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127">
         <v>1.56</v>
@@ -28962,7 +28968,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.91</v>
@@ -29165,7 +29171,7 @@
         <v>1.43</v>
       </c>
       <c r="AP136">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ136">
         <v>1.56</v>
@@ -29992,7 +29998,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ140">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR140">
         <v>1.69</v>
@@ -30813,7 +30819,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -31225,7 +31231,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
         <v>1.56</v>
@@ -32258,7 +32264,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ151">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR151">
         <v>1.81</v>
@@ -32464,7 +32470,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.7</v>
@@ -33712,22 +33718,22 @@
         <v>2.98</v>
       </c>
       <c r="AU158">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV158">
         <v>4</v>
       </c>
       <c r="AW158">
+        <v>7</v>
+      </c>
+      <c r="AX158">
         <v>4</v>
       </c>
-      <c r="AX158">
-        <v>1</v>
-      </c>
       <c r="AY158">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AZ158">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA158">
         <v>10</v>
@@ -33776,6 +33782,624 @@
       </c>
       <c r="BP158">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7450805</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45634.34375</v>
+      </c>
+      <c r="F159">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>84</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>95</v>
+      </c>
+      <c r="P159" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q159">
+        <v>3.4</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>3.5</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3.25</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>9</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>2.6</v>
+      </c>
+      <c r="AA159">
+        <v>3.25</v>
+      </c>
+      <c r="AB159">
+        <v>2.7</v>
+      </c>
+      <c r="AC159">
+        <v>1.07</v>
+      </c>
+      <c r="AD159">
+        <v>8</v>
+      </c>
+      <c r="AE159">
+        <v>1.33</v>
+      </c>
+      <c r="AF159">
+        <v>3.1</v>
+      </c>
+      <c r="AG159">
+        <v>2.3</v>
+      </c>
+      <c r="AH159">
+        <v>1.6</v>
+      </c>
+      <c r="AI159">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.36</v>
+      </c>
+      <c r="AL159">
+        <v>1.28</v>
+      </c>
+      <c r="AM159">
+        <v>1.57</v>
+      </c>
+      <c r="AN159">
+        <v>1.25</v>
+      </c>
+      <c r="AO159">
+        <v>2.25</v>
+      </c>
+      <c r="AP159">
+        <v>1.22</v>
+      </c>
+      <c r="AQ159">
+        <v>2.11</v>
+      </c>
+      <c r="AR159">
+        <v>1.47</v>
+      </c>
+      <c r="AS159">
+        <v>1.56</v>
+      </c>
+      <c r="AT159">
+        <v>3.03</v>
+      </c>
+      <c r="AU159">
+        <v>8</v>
+      </c>
+      <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>16</v>
+      </c>
+      <c r="AZ159">
+        <v>14</v>
+      </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>11</v>
+      </c>
+      <c r="BD159">
+        <v>1.83</v>
+      </c>
+      <c r="BE159">
+        <v>6.4</v>
+      </c>
+      <c r="BF159">
+        <v>2.18</v>
+      </c>
+      <c r="BG159">
+        <v>1.42</v>
+      </c>
+      <c r="BH159">
+        <v>2.55</v>
+      </c>
+      <c r="BI159">
+        <v>1.72</v>
+      </c>
+      <c r="BJ159">
+        <v>1.94</v>
+      </c>
+      <c r="BK159">
+        <v>2.15</v>
+      </c>
+      <c r="BL159">
+        <v>1.58</v>
+      </c>
+      <c r="BM159">
+        <v>2.8</v>
+      </c>
+      <c r="BN159">
+        <v>1.35</v>
+      </c>
+      <c r="BO159">
+        <v>3.8</v>
+      </c>
+      <c r="BP159">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7450806</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45634.44791666666</v>
+      </c>
+      <c r="F160">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>79</v>
+      </c>
+      <c r="H160" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>202</v>
+      </c>
+      <c r="P160" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q160">
+        <v>4.5</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>2.38</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>4.2</v>
+      </c>
+      <c r="AA160">
+        <v>3.75</v>
+      </c>
+      <c r="AB160">
+        <v>1.75</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>9.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.8</v>
+      </c>
+      <c r="AG160">
+        <v>1.7</v>
+      </c>
+      <c r="AH160">
+        <v>2.1</v>
+      </c>
+      <c r="AI160">
+        <v>1.67</v>
+      </c>
+      <c r="AJ160">
+        <v>2.1</v>
+      </c>
+      <c r="AK160">
+        <v>1.83</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>1.25</v>
+      </c>
+      <c r="AN160">
+        <v>1.5</v>
+      </c>
+      <c r="AO160">
+        <v>2</v>
+      </c>
+      <c r="AP160">
+        <v>1.44</v>
+      </c>
+      <c r="AQ160">
+        <v>1.89</v>
+      </c>
+      <c r="AR160">
+        <v>1.51</v>
+      </c>
+      <c r="AS160">
+        <v>1.13</v>
+      </c>
+      <c r="AT160">
+        <v>2.64</v>
+      </c>
+      <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>8</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>10</v>
+      </c>
+      <c r="AY160">
+        <v>9</v>
+      </c>
+      <c r="AZ160">
+        <v>20</v>
+      </c>
+      <c r="BA160">
+        <v>1</v>
+      </c>
+      <c r="BB160">
+        <v>2</v>
+      </c>
+      <c r="BC160">
+        <v>3</v>
+      </c>
+      <c r="BD160">
+        <v>2.5</v>
+      </c>
+      <c r="BE160">
+        <v>6.5</v>
+      </c>
+      <c r="BF160">
+        <v>1.65</v>
+      </c>
+      <c r="BG160">
+        <v>1.34</v>
+      </c>
+      <c r="BH160">
+        <v>2.85</v>
+      </c>
+      <c r="BI160">
+        <v>1.58</v>
+      </c>
+      <c r="BJ160">
+        <v>2.14</v>
+      </c>
+      <c r="BK160">
+        <v>2.38</v>
+      </c>
+      <c r="BL160">
+        <v>1.71</v>
+      </c>
+      <c r="BM160">
+        <v>2.48</v>
+      </c>
+      <c r="BN160">
+        <v>1.44</v>
+      </c>
+      <c r="BO160">
+        <v>3.2</v>
+      </c>
+      <c r="BP160">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7450802</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45634.5625</v>
+      </c>
+      <c r="F161">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>83</v>
+      </c>
+      <c r="H161" t="s">
+        <v>74</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>3</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>95</v>
+      </c>
+      <c r="P161" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>2.5</v>
+      </c>
+      <c r="T161">
+        <v>1.36</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>3.6</v>
+      </c>
+      <c r="AA161">
+        <v>3.5</v>
+      </c>
+      <c r="AB161">
+        <v>1.85</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>9.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.25</v>
+      </c>
+      <c r="AF161">
+        <v>3.7</v>
+      </c>
+      <c r="AG161">
+        <v>1.8</v>
+      </c>
+      <c r="AH161">
+        <v>1.9</v>
+      </c>
+      <c r="AI161">
+        <v>1.62</v>
+      </c>
+      <c r="AJ161">
+        <v>2.2</v>
+      </c>
+      <c r="AK161">
+        <v>1.83</v>
+      </c>
+      <c r="AL161">
+        <v>1.22</v>
+      </c>
+      <c r="AM161">
+        <v>1.25</v>
+      </c>
+      <c r="AN161">
+        <v>1.63</v>
+      </c>
+      <c r="AO161">
+        <v>1.25</v>
+      </c>
+      <c r="AP161">
+        <v>1.44</v>
+      </c>
+      <c r="AQ161">
+        <v>1.44</v>
+      </c>
+      <c r="AR161">
+        <v>1.75</v>
+      </c>
+      <c r="AS161">
+        <v>1.55</v>
+      </c>
+      <c r="AT161">
+        <v>3.3</v>
+      </c>
+      <c r="AU161">
+        <v>5</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>9</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>13</v>
+      </c>
+      <c r="BA161">
+        <v>7</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>11</v>
+      </c>
+      <c r="BD161">
+        <v>2.55</v>
+      </c>
+      <c r="BE161">
+        <v>6.75</v>
+      </c>
+      <c r="BF161">
+        <v>1.61</v>
+      </c>
+      <c r="BG161">
+        <v>1.37</v>
+      </c>
+      <c r="BH161">
+        <v>2.7</v>
+      </c>
+      <c r="BI161">
+        <v>1.63</v>
+      </c>
+      <c r="BJ161">
+        <v>2.07</v>
+      </c>
+      <c r="BK161">
+        <v>2.02</v>
+      </c>
+      <c r="BL161">
+        <v>1.65</v>
+      </c>
+      <c r="BM161">
+        <v>2.63</v>
+      </c>
+      <c r="BN161">
+        <v>1.4</v>
+      </c>
+      <c r="BO161">
+        <v>3.45</v>
+      </c>
+      <c r="BP161">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1230,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4454,7 +4454,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ18">
         <v>1.44</v>
@@ -5484,7 +5484,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -7335,7 +7335,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30">
         <v>2.11</v>
@@ -11664,7 +11664,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
         <v>1.7</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53">
         <v>0.44</v>
@@ -14754,7 +14754,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -15369,7 +15369,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -17844,7 +17844,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81">
         <v>1.75</v>
@@ -19077,7 +19077,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ87">
         <v>1.56</v>
@@ -21549,7 +21549,7 @@
         <v>1.17</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -22994,7 +22994,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -25672,7 +25672,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR119">
         <v>1.67</v>
@@ -27729,7 +27729,7 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -29586,7 +29586,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ138">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
         <v>1.26</v>
@@ -32055,7 +32055,7 @@
         <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ150">
         <v>1.56</v>
@@ -33718,7 +33718,7 @@
         <v>2.98</v>
       </c>
       <c r="AU158">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV158">
         <v>4</v>
@@ -33730,10 +33730,10 @@
         <v>4</v>
       </c>
       <c r="AY158">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ158">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA158">
         <v>10</v>
@@ -34400,6 +34400,212 @@
       </c>
       <c r="BP161">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7450803</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45635.625</v>
+      </c>
+      <c r="F162">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s">
+        <v>85</v>
+      </c>
+      <c r="H162" t="s">
+        <v>73</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>95</v>
+      </c>
+      <c r="P162" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q162">
+        <v>3.6</v>
+      </c>
+      <c r="R162">
+        <v>2.2</v>
+      </c>
+      <c r="S162">
+        <v>2.88</v>
+      </c>
+      <c r="T162">
+        <v>1.4</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>2.75</v>
+      </c>
+      <c r="W162">
+        <v>1.4</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>3.1</v>
+      </c>
+      <c r="AA162">
+        <v>3.4</v>
+      </c>
+      <c r="AB162">
+        <v>2.25</v>
+      </c>
+      <c r="AC162">
+        <v>1.05</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
+        <v>1.28</v>
+      </c>
+      <c r="AF162">
+        <v>3.5</v>
+      </c>
+      <c r="AG162">
+        <v>1.85</v>
+      </c>
+      <c r="AH162">
+        <v>1.95</v>
+      </c>
+      <c r="AI162">
+        <v>1.7</v>
+      </c>
+      <c r="AJ162">
+        <v>2.05</v>
+      </c>
+      <c r="AK162">
+        <v>1.6</v>
+      </c>
+      <c r="AL162">
+        <v>1.25</v>
+      </c>
+      <c r="AM162">
+        <v>1.38</v>
+      </c>
+      <c r="AN162">
+        <v>0.88</v>
+      </c>
+      <c r="AO162">
+        <v>0.5</v>
+      </c>
+      <c r="AP162">
+        <v>0.89</v>
+      </c>
+      <c r="AQ162">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR162">
+        <v>1.43</v>
+      </c>
+      <c r="AS162">
+        <v>1.47</v>
+      </c>
+      <c r="AT162">
+        <v>2.9</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>0</v>
+      </c>
+      <c r="AW162">
+        <v>2</v>
+      </c>
+      <c r="AX162">
+        <v>9</v>
+      </c>
+      <c r="AY162">
+        <v>9</v>
+      </c>
+      <c r="AZ162">
+        <v>12</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>7</v>
+      </c>
+      <c r="BD162">
+        <v>2.05</v>
+      </c>
+      <c r="BE162">
+        <v>6.75</v>
+      </c>
+      <c r="BF162">
+        <v>1.92</v>
+      </c>
+      <c r="BG162">
+        <v>1.21</v>
+      </c>
+      <c r="BH162">
+        <v>3.65</v>
+      </c>
+      <c r="BI162">
+        <v>1.38</v>
+      </c>
+      <c r="BJ162">
+        <v>2.65</v>
+      </c>
+      <c r="BK162">
+        <v>1.83</v>
+      </c>
+      <c r="BL162">
+        <v>2</v>
+      </c>
+      <c r="BM162">
+        <v>2</v>
+      </c>
+      <c r="BN162">
+        <v>1.66</v>
+      </c>
+      <c r="BO162">
+        <v>2.55</v>
+      </c>
+      <c r="BP162">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -33933,13 +33933,13 @@
         <v>5</v>
       </c>
       <c r="AX159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY159">
         <v>16</v>
       </c>
       <c r="AZ159">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA159">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -34551,13 +34551,13 @@
         <v>2</v>
       </c>
       <c r="AX162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY162">
         <v>9</v>
       </c>
       <c r="AZ162">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA162">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['24', '37']</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
   </si>
   <si>
     <t>['16', '59']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['4', '50']</t>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>['17', '26', '31']</t>
+  </si>
+  <si>
+    <t>['48', '63']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1901,7 +1904,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1982,7 +1985,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2519,7 +2522,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2931,7 +2934,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3137,7 +3140,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3343,7 +3346,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3549,7 +3552,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3755,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3961,7 +3964,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>3.5</v>
@@ -4167,7 +4170,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>3.6</v>
@@ -4373,7 +4376,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>3.5</v>
@@ -5609,7 +5612,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -6227,7 +6230,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6433,7 +6436,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6639,7 +6642,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>3.1</v>
@@ -6845,7 +6848,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7257,7 +7260,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7669,7 +7672,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7875,7 +7878,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>4.75</v>
@@ -8287,7 +8290,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>2.3</v>
@@ -8905,7 +8908,7 @@
         <v>115</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>2.25</v>
@@ -9111,7 +9114,7 @@
         <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9601,7 +9604,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41">
         <v>1.11</v>
@@ -9729,7 +9732,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9810,7 +9813,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10347,7 +10350,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10428,7 +10431,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.15</v>
@@ -10553,7 +10556,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10965,7 +10968,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11377,7 +11380,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11867,7 +11870,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -12201,7 +12204,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12407,7 +12410,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>4.75</v>
@@ -13025,7 +13028,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13231,7 +13234,7 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
@@ -13437,7 +13440,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13643,7 +13646,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14261,7 +14264,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.88</v>
@@ -14548,7 +14551,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14673,7 +14676,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -16115,7 +16118,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16321,7 +16324,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17145,7 +17148,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -18874,7 +18877,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -20931,7 +20934,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ96">
         <v>2.11</v>
@@ -23403,7 +23406,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ108">
         <v>0.44</v>
@@ -24227,7 +24230,7 @@
         <v>2.67</v>
       </c>
       <c r="AP112">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ112">
         <v>2.33</v>
@@ -24436,7 +24439,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -27526,7 +27529,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ128">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -28347,7 +28350,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ132">
         <v>1.56</v>
@@ -31437,7 +31440,7 @@
         <v>0.25</v>
       </c>
       <c r="AP147">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ147">
         <v>0.5600000000000001</v>
@@ -32676,7 +32679,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.63</v>
@@ -34606,6 +34609,212 @@
       </c>
       <c r="BP162">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7450674</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45640.5625</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>203</v>
+      </c>
+      <c r="P163" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q163">
+        <v>2.6</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>4.33</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.63</v>
+      </c>
+      <c r="V163">
+        <v>3.25</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>9</v>
+      </c>
+      <c r="Y163">
+        <v>1.07</v>
+      </c>
+      <c r="Z163">
+        <v>2.12</v>
+      </c>
+      <c r="AA163">
+        <v>3.2</v>
+      </c>
+      <c r="AB163">
+        <v>3.4</v>
+      </c>
+      <c r="AC163">
+        <v>1.07</v>
+      </c>
+      <c r="AD163">
+        <v>8</v>
+      </c>
+      <c r="AE163">
+        <v>1.38</v>
+      </c>
+      <c r="AF163">
+        <v>3</v>
+      </c>
+      <c r="AG163">
+        <v>2.09</v>
+      </c>
+      <c r="AH163">
+        <v>1.74</v>
+      </c>
+      <c r="AI163">
+        <v>1.75</v>
+      </c>
+      <c r="AJ163">
+        <v>2</v>
+      </c>
+      <c r="AK163">
+        <v>1.28</v>
+      </c>
+      <c r="AL163">
+        <v>1.28</v>
+      </c>
+      <c r="AM163">
+        <v>1.73</v>
+      </c>
+      <c r="AN163">
+        <v>0.88</v>
+      </c>
+      <c r="AO163">
+        <v>0.75</v>
+      </c>
+      <c r="AP163">
+        <v>0.78</v>
+      </c>
+      <c r="AQ163">
+        <v>1</v>
+      </c>
+      <c r="AR163">
+        <v>1.52</v>
+      </c>
+      <c r="AS163">
+        <v>1.45</v>
+      </c>
+      <c r="AT163">
+        <v>2.97</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>4</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>10</v>
+      </c>
+      <c r="AZ163">
+        <v>12</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
+        <v>1.75</v>
+      </c>
+      <c r="BE163">
+        <v>8</v>
+      </c>
+      <c r="BF163">
+        <v>2.52</v>
+      </c>
+      <c r="BG163">
+        <v>1.24</v>
+      </c>
+      <c r="BH163">
+        <v>3.48</v>
+      </c>
+      <c r="BI163">
+        <v>1.5</v>
+      </c>
+      <c r="BJ163">
+        <v>2.3</v>
+      </c>
+      <c r="BK163">
+        <v>2.1</v>
+      </c>
+      <c r="BL163">
+        <v>1.82</v>
+      </c>
+      <c r="BM163">
+        <v>2.43</v>
+      </c>
+      <c r="BN163">
+        <v>1.46</v>
+      </c>
+      <c r="BO163">
+        <v>3.3</v>
+      </c>
+      <c r="BP163">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
